--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagy-Raffay Barnabás\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6698E40-87A3-4D3C-BCD7-A676EC4456D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7916B9-D797-454A-B371-694101EA36FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>172.20.10.70</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Windows 2025</t>
+  </si>
+  <si>
+    <t>Debian 12</t>
+  </si>
+  <si>
+    <t>Host</t>
   </si>
 </sst>
 </file>
@@ -663,10 +675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6E3A52-EA1F-4DC3-A424-AC94E711F493}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,9 +686,11 @@
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -686,8 +700,14 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -697,8 +717,11 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -708,8 +731,11 @@
       <c r="C3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -719,8 +745,14 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -730,8 +762,14 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -741,8 +779,14 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -752,8 +796,14 @@
       <c r="C7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -763,8 +813,14 @@
       <c r="C8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -773,6 +829,12 @@
       </c>
       <c r="C9" t="s">
         <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7916B9-D797-454A-B371-694101EA36FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578C095-766A-42D9-8000-CCE9E89E79F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Vlan" sheetId="1" r:id="rId1"/>
-    <sheet name="Szerver címek" sheetId="2" r:id="rId2"/>
-    <sheet name="Szerverek" sheetId="3" r:id="rId3"/>
+    <sheet name="KP szerver címek" sheetId="2" r:id="rId2"/>
+    <sheet name="MB szerver címek" sheetId="4" r:id="rId3"/>
+    <sheet name="TH szerver címek" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -100,30 +101,6 @@
     <t>File/VSS</t>
   </si>
   <si>
-    <t>Gibbon</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Lemur</t>
-  </si>
-  <si>
-    <t>file vss</t>
-  </si>
-  <si>
-    <t>Mandril</t>
-  </si>
-  <si>
-    <t>Tamarin</t>
-  </si>
-  <si>
-    <t>Silverback</t>
-  </si>
-  <si>
-    <t>hypervisor</t>
-  </si>
-  <si>
     <t>mgmt</t>
   </si>
   <si>
@@ -178,15 +155,9 @@
     <t>exhange mail</t>
   </si>
   <si>
-    <t xml:space="preserve">linux ntp, docker </t>
-  </si>
-  <si>
     <t>ansible, zabbix</t>
   </si>
   <si>
-    <t>mandril</t>
-  </si>
-  <si>
     <t>172.20.10.60</t>
   </si>
   <si>
@@ -203,13 +174,34 @@
   </si>
   <si>
     <t>Host</t>
+  </si>
+  <si>
+    <t>mandrill</t>
+  </si>
+  <si>
+    <t>172.24.10.10</t>
+  </si>
+  <si>
+    <t>172.24.10.20</t>
+  </si>
+  <si>
+    <t>172.24.10.30</t>
+  </si>
+  <si>
+    <t>172.28.10.10</t>
+  </si>
+  <si>
+    <t>172.28.10.20</t>
+  </si>
+  <si>
+    <t>172.28.10.30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,19 +212,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -259,10 +238,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -606,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -617,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -628,7 +605,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -639,7 +616,7 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -650,7 +627,7 @@
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -661,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -677,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6E3A52-EA1F-4DC3-A424-AC94E711F493}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,10 +678,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -718,21 +695,21 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,13 +717,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -757,13 +734,13 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -771,50 +748,50 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -822,16 +799,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -844,73 +821,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A64587-6C9B-45DC-9AF4-6AC855366FB4}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB214C33-CBE8-42D1-A563-8025BAE71140}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655F1E4D-C743-4EB8-BF16-8FB730EBBF2B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9578C095-766A-42D9-8000-CCE9E89E79F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33EF6B5-470A-434A-BD7E-7715C346FA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Vlan" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>172.20.10.40</t>
   </si>
   <si>
-    <t>ntp/zabbix/ansible</t>
-  </si>
-  <si>
     <t>baboon</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>172.28.10.30</t>
+  </si>
+  <si>
+    <t>ntp, docker</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6E3A52-EA1F-4DC3-A424-AC94E711F493}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,10 +678,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -740,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -754,10 +754,10 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -768,13 +768,13 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -782,16 +782,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -799,16 +799,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -846,10 +846,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -857,13 +857,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,13 +871,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -888,13 +888,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -909,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655F1E4D-C743-4EB8-BF16-8FB730EBBF2B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -932,10 +932,10 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,13 +943,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,13 +957,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -974,13 +974,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>

--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solet\Documents\Jedlik\MonkeBricks\monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33EF6B5-470A-434A-BD7E-7715C346FA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB146CA6-22E2-4408-97A6-51D701B38E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Vlan" sheetId="1" r:id="rId1"/>
-    <sheet name="KP szerver címek" sheetId="2" r:id="rId2"/>
-    <sheet name="MB szerver címek" sheetId="4" r:id="rId3"/>
-    <sheet name="TH szerver címek" sheetId="5" r:id="rId4"/>
+    <sheet name="IP tartományok" sheetId="7" r:id="rId2"/>
+    <sheet name="KP szerver címek" sheetId="2" r:id="rId3"/>
+    <sheet name="MB szerver címek" sheetId="4" r:id="rId4"/>
+    <sheet name="TH szerver címek" sheetId="5" r:id="rId5"/>
+    <sheet name="Hálózati eszközök" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -195,13 +197,139 @@
   </si>
   <si>
     <t>ntp, docker</t>
+  </si>
+  <si>
+    <t>Központ</t>
+  </si>
+  <si>
+    <t>Markotabödöge</t>
+  </si>
+  <si>
+    <t>mborangutan</t>
+  </si>
+  <si>
+    <t>mbbanana</t>
+  </si>
+  <si>
+    <t>Taktaharkány</t>
+  </si>
+  <si>
+    <t>thorangutan</t>
+  </si>
+  <si>
+    <t>thbanana</t>
+  </si>
+  <si>
+    <t>Telephely</t>
+  </si>
+  <si>
+    <t>Eszköz neve</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>reth0</t>
+  </si>
+  <si>
+    <t>reth1</t>
+  </si>
+  <si>
+    <t>reth2</t>
+  </si>
+  <si>
+    <t>reth3</t>
+  </si>
+  <si>
+    <t>reth4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>213.253.195.238/24</t>
+  </si>
+  <si>
+    <t>172.20.18.254/24</t>
+  </si>
+  <si>
+    <t>172.20.25.254/24</t>
+  </si>
+  <si>
+    <t>172.20.84.254/24</t>
+  </si>
+  <si>
+    <t>172.20.10.254/24</t>
+  </si>
+  <si>
+    <t>172.20.45.254/24</t>
+  </si>
+  <si>
+    <t>172.20.52.254/24</t>
+  </si>
+  <si>
+    <t>Fizikai port</t>
+  </si>
+  <si>
+    <t>ge0/0/3; ge1/0/3</t>
+  </si>
+  <si>
+    <t>ge0/0/4; ge1/0/4</t>
+  </si>
+  <si>
+    <t>ge0/0/5; ge1/0/5</t>
+  </si>
+  <si>
+    <t>ge0/0/6; ge1/0/6</t>
+  </si>
+  <si>
+    <t>ge0/0/7; ge1/0/7</t>
+  </si>
+  <si>
+    <t>Csatlakozó eszköz</t>
+  </si>
+  <si>
+    <t>Csatlakozó port</t>
+  </si>
+  <si>
+    <t>172.20.25.20/24</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>172.20.0.0/16</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>172.24.0.0/16</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>172.28.0.0/16</t>
+  </si>
+  <si>
+    <t>orangutancluster1 (orangutan1;orangutan2)</t>
+  </si>
+  <si>
+    <t>bananacluster1 (banana1; banana2)</t>
+  </si>
+  <si>
+    <t>irb.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +340,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -238,8 +375,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -560,14 +705,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -589,7 +734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
@@ -600,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>45</v>
       </c>
@@ -611,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>52</v>
       </c>
@@ -622,7 +767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>84</v>
       </c>
@@ -633,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18</v>
       </c>
@@ -651,23 +796,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9154477C-E70C-4230-90A4-1911A9F1007F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6E3A52-EA1F-4DC3-A424-AC94E711F493}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -684,7 +871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -698,7 +885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -712,7 +899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -729,7 +916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -746,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -763,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -780,7 +967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -797,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -820,22 +1007,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB214C33-CBE8-42D1-A563-8025BAE71140}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -852,7 +1039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -866,7 +1053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -883,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -905,7 +1092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655F1E4D-C743-4EB8-BF16-8FB730EBBF2B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -913,15 +1100,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -938,7 +1125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -952,7 +1139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -969,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -989,4 +1176,203 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C47942-4AB3-49AD-9117-C136C35EE9A3}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solet\Documents\Jedlik\MonkeBricks\monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB146CA6-22E2-4408-97A6-51D701B38E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E6AECF-C9EF-4D46-A649-E033404FB5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="168">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -205,21 +205,9 @@
     <t>Markotabödöge</t>
   </si>
   <si>
-    <t>mborangutan</t>
-  </si>
-  <si>
-    <t>mbbanana</t>
-  </si>
-  <si>
     <t>Taktaharkány</t>
   </si>
   <si>
-    <t>thorangutan</t>
-  </si>
-  <si>
-    <t>thbanana</t>
-  </si>
-  <si>
     <t>Telephely</t>
   </si>
   <si>
@@ -235,33 +223,12 @@
     <t>reth0</t>
   </si>
   <si>
-    <t>reth1</t>
-  </si>
-  <si>
-    <t>reth2</t>
-  </si>
-  <si>
-    <t>reth3</t>
-  </si>
-  <si>
-    <t>reth4</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>213.253.195.238/24</t>
   </si>
   <si>
-    <t>172.20.18.254/24</t>
-  </si>
-  <si>
-    <t>172.20.25.254/24</t>
-  </si>
-  <si>
-    <t>172.20.84.254/24</t>
-  </si>
-  <si>
     <t>172.20.10.254/24</t>
   </si>
   <si>
@@ -271,24 +238,6 @@
     <t>172.20.52.254/24</t>
   </si>
   <si>
-    <t>Fizikai port</t>
-  </si>
-  <si>
-    <t>ge0/0/3; ge1/0/3</t>
-  </si>
-  <si>
-    <t>ge0/0/4; ge1/0/4</t>
-  </si>
-  <si>
-    <t>ge0/0/5; ge1/0/5</t>
-  </si>
-  <si>
-    <t>ge0/0/6; ge1/0/6</t>
-  </si>
-  <si>
-    <t>ge0/0/7; ge1/0/7</t>
-  </si>
-  <si>
     <t>Csatlakozó eszköz</t>
   </si>
   <si>
@@ -316,13 +265,292 @@
     <t>172.28.0.0/16</t>
   </si>
   <si>
-    <t>orangutancluster1 (orangutan1;orangutan2)</t>
-  </si>
-  <si>
     <t>bananacluster1 (banana1; banana2)</t>
   </si>
   <si>
     <t>irb.0</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>bananacluster1</t>
+  </si>
+  <si>
+    <t>ge-0/0/46</t>
+  </si>
+  <si>
+    <t>ge-0/0/47</t>
+  </si>
+  <si>
+    <t>ge-0/1/0</t>
+  </si>
+  <si>
+    <t>ge-0/1/1</t>
+  </si>
+  <si>
+    <t>orangutan1</t>
+  </si>
+  <si>
+    <t>logikai port</t>
+  </si>
+  <si>
+    <t>ge-0/0/3</t>
+  </si>
+  <si>
+    <t>ge-0/0/4</t>
+  </si>
+  <si>
+    <t>ge-0/0/5</t>
+  </si>
+  <si>
+    <t>ge-0/0/6</t>
+  </si>
+  <si>
+    <t>ge-0/0/7</t>
+  </si>
+  <si>
+    <t>orangutancluster1(orangutan1;orangutan2)</t>
+  </si>
+  <si>
+    <t>ge-1/0/3</t>
+  </si>
+  <si>
+    <t>18;25;84</t>
+  </si>
+  <si>
+    <t>172.20.18.254/24
+172.20.25.254/24
+172.20.84.254/24</t>
+  </si>
+  <si>
+    <t>18
+25
+84</t>
+  </si>
+  <si>
+    <t>ge-1/0/46</t>
+  </si>
+  <si>
+    <t>ge-1/0/47</t>
+  </si>
+  <si>
+    <t>ge-1/0/6</t>
+  </si>
+  <si>
+    <t>ge-1/0/5</t>
+  </si>
+  <si>
+    <t>ge-1/1/0</t>
+  </si>
+  <si>
+    <t>ge-1/0/7</t>
+  </si>
+  <si>
+    <t>ge-1/1/1</t>
+  </si>
+  <si>
+    <t>ge-0/1/2</t>
+  </si>
+  <si>
+    <t>ge-1/1/2</t>
+  </si>
+  <si>
+    <t>ge-0/1/3</t>
+  </si>
+  <si>
+    <t>ge-1/1/3</t>
+  </si>
+  <si>
+    <t>reth1.18
+reth1.25
+reth1.84</t>
+  </si>
+  <si>
+    <t>reth2.10</t>
+  </si>
+  <si>
+    <t>reth3.45</t>
+  </si>
+  <si>
+    <t>reth4.52</t>
+  </si>
+  <si>
+    <t>ge-0/0/12</t>
+  </si>
+  <si>
+    <t>ge-0/0/13</t>
+  </si>
+  <si>
+    <t>ge-0/0/12.0</t>
+  </si>
+  <si>
+    <t>silverback1</t>
+  </si>
+  <si>
+    <t>ge-0/0/13.0</t>
+  </si>
+  <si>
+    <t>IMM</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>ge-1/0/12</t>
+  </si>
+  <si>
+    <t>ge-1/0/13</t>
+  </si>
+  <si>
+    <t>ge-1/0/12.0</t>
+  </si>
+  <si>
+    <t>ge-0/1/0.0</t>
+  </si>
+  <si>
+    <t>10;18;25;45;52;84</t>
+  </si>
+  <si>
+    <t>ge-0/1/1.0</t>
+  </si>
+  <si>
+    <t>ge-1/1/0.0</t>
+  </si>
+  <si>
+    <t>ge-1/1/1.0</t>
+  </si>
+  <si>
+    <t>banana2</t>
+  </si>
+  <si>
+    <t>banana1</t>
+  </si>
+  <si>
+    <t>ge-0/0/0</t>
+  </si>
+  <si>
+    <t>ge-0/0/0.0</t>
+  </si>
+  <si>
+    <t>ge-0/0/1</t>
+  </si>
+  <si>
+    <t>ge-0/0/2</t>
+  </si>
+  <si>
+    <t>ge-0/0/1.18</t>
+  </si>
+  <si>
+    <t>ge-0/0/1.25</t>
+  </si>
+  <si>
+    <t>ge-0/0/1.84</t>
+  </si>
+  <si>
+    <t>172.24.18.254/24</t>
+  </si>
+  <si>
+    <t>172.24.25.254/24</t>
+  </si>
+  <si>
+    <t>172.24.84.254/24</t>
+  </si>
+  <si>
+    <t>ge-0/0/44</t>
+  </si>
+  <si>
+    <t>ge-0/0/2.10</t>
+  </si>
+  <si>
+    <t>172.24.10.254/24</t>
+  </si>
+  <si>
+    <t>ge-0/0/45</t>
+  </si>
+  <si>
+    <t>ge-0/0/3.45</t>
+  </si>
+  <si>
+    <t>ge-0/0/4.52</t>
+  </si>
+  <si>
+    <t>172.24.45.254/24</t>
+  </si>
+  <si>
+    <t>172.24.52.254/24</t>
+  </si>
+  <si>
+    <t>213.253.195.237/24</t>
+  </si>
+  <si>
+    <t>172.24.25.20/24</t>
+  </si>
+  <si>
+    <t>ge-0/0/46.0</t>
+  </si>
+  <si>
+    <t>orangutancluster1</t>
+  </si>
+  <si>
+    <t>ge-1/0/46.0</t>
+  </si>
+  <si>
+    <t>ge-1/0/4</t>
+  </si>
+  <si>
+    <t>ge-0/0/47.0</t>
+  </si>
+  <si>
+    <t>ge-1/0/47.0</t>
+  </si>
+  <si>
+    <t>ge-0/1/2.0</t>
+  </si>
+  <si>
+    <t>ge-1/1/2.0</t>
+  </si>
+  <si>
+    <t>ge-0/1/3.0</t>
+  </si>
+  <si>
+    <t>ge-1/1/3.0</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>ge-0/0/44.0</t>
+  </si>
+  <si>
+    <t>ge-0/0/45.0</t>
+  </si>
+  <si>
+    <t>213.253.195.235/24</t>
+  </si>
+  <si>
+    <t>172.28.18.254/24</t>
+  </si>
+  <si>
+    <t>172.28.25.254/24</t>
+  </si>
+  <si>
+    <t>172.28.84.254/24</t>
+  </si>
+  <si>
+    <t>172.28.10.254/24</t>
+  </si>
+  <si>
+    <t>172.28.45.254/24</t>
+  </si>
+  <si>
+    <t>172.28.52.254/24</t>
+  </si>
+  <si>
+    <t>172.28.25.20/24</t>
   </si>
 </sst>
 </file>
@@ -375,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -384,7 +612,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -810,26 +1068,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1180,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C47942-4AB3-49AD-9117-C136C35EE9A3}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1193,184 +1451,1205 @@
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="14"/>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14"/>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="4"/>
+      <c r="H7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="14"/>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="14"/>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="4"/>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="14"/>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="4">
+        <v>52</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="4"/>
+      <c r="H11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="3">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="14"/>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="4">
+        <v>45</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="4">
+        <v>52</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="14"/>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="3">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="12"/>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="3">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="12"/>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="3">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="14"/>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="14"/>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="14"/>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="3">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="3">
+        <v>25</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="14"/>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="14"/>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="3">
+        <v>25</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="14"/>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E3">
+      <c r="D42" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="3">
+        <v>52</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="3">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4">
+      <c r="F46" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="12"/>
+      <c r="D47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="3">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5">
+      <c r="F47" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="12"/>
+      <c r="D48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="3">
         <v>84</v>
       </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F48" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="14"/>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="14"/>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="14"/>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="3">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E6">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="3">
+        <v>25</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="14"/>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="3">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="14"/>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="3">
+        <v>25</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="14"/>
+      <c r="C55" t="s">
         <v>80</v>
       </c>
-      <c r="E7">
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="3">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="3">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>58</v>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B2:B8"/>
+  <mergeCells count="53">
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G46:G51"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="A29:A44"/>
+    <mergeCell ref="A45:A60"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="F37:F44"/>
+    <mergeCell ref="F53:F60"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B12:B28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solet\Documents\Jedlik\MonkeBricks\monke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solett\Documents\monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E6AECF-C9EF-4D46-A649-E033404FB5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438BFCF4-A2D0-4901-8DA8-2AF39BB604BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vlan" sheetId="1" r:id="rId1"/>
+    <sheet name="VLAN" sheetId="1" r:id="rId1"/>
     <sheet name="IP tartományok" sheetId="7" r:id="rId2"/>
     <sheet name="KP szerver címek" sheetId="2" r:id="rId3"/>
     <sheet name="MB szerver címek" sheetId="4" r:id="rId4"/>
@@ -41,33 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="170">
   <si>
     <t>VLAN szám</t>
   </si>
   <si>
-    <t>Neve</t>
-  </si>
-  <si>
     <t>IP tartomány</t>
-  </si>
-  <si>
-    <t>172.20.10.0/24</t>
-  </si>
-  <si>
-    <t>172.20.25.0/24</t>
-  </si>
-  <si>
-    <t>172.20.45.0/24</t>
-  </si>
-  <si>
-    <t>172.20.52.0/24</t>
-  </si>
-  <si>
-    <t>172.20.84.0/24</t>
-  </si>
-  <si>
-    <t>172.20.18.0/24</t>
   </si>
   <si>
     <t>Név</t>
@@ -551,6 +530,33 @@
   </si>
   <si>
     <t>172.28.25.20/24</t>
+  </si>
+  <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>172.x.10.0/24</t>
+  </si>
+  <si>
+    <t>172.x.25.0/24</t>
+  </si>
+  <si>
+    <t>172.x.45.0/24</t>
+  </si>
+  <si>
+    <t>172.x.52.0/24</t>
+  </si>
+  <si>
+    <t>172.x.84.0/24</t>
+  </si>
+  <si>
+    <t>172.x.18.0/24</t>
+  </si>
+  <si>
+    <t>172.x.201.0/24</t>
+  </si>
+  <si>
+    <t>ge-1/0/13.0</t>
   </si>
 </sst>
 </file>
@@ -613,7 +619,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,12 +635,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -635,13 +644,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,94 +963,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3E938-FD84-4BD9-A896-F3638C30CA67}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>201</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1057,37 +1074,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9154477C-E70C-4230-90A4-1911A9F1007F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1103,160 +1121,160 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1273,76 +1291,76 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1358,77 +1376,77 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1440,1186 +1458,1182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C47942-4AB3-49AD-9117-C136C35EE9A3}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="10">
+        <v>52</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="14"/>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="14"/>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="14"/>
-      <c r="C7" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="4"/>
-      <c r="H7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="14"/>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="4">
-        <v>45</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="4"/>
-      <c r="H9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="14"/>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="4">
-        <v>52</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14"/>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="4"/>
-      <c r="H11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14" t="s">
-        <v>74</v>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3">
         <v>25</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
+      <c r="G12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>112</v>
+      <c r="F13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E14" s="3">
         <v>25</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="14"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E15" s="3">
         <v>10</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>28</v>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="E16" s="3">
         <v>25</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="14"/>
-      <c r="C17" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="10">
+        <v>10</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="10">
+        <v>45</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="10">
+        <v>52</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="D29" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="14"/>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="14"/>
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="14"/>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D30" t="s">
         <v>123</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="14"/>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="14"/>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="4">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="14"/>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="14"/>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="4">
-        <v>45</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="14"/>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="14"/>
-      <c r="C27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="4">
-        <v>52</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
-      <c r="C28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" t="s">
-        <v>130</v>
       </c>
       <c r="E30" s="3">
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="9"/>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E31" s="3">
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
+        <v>127</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="9"/>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E32" s="3">
         <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E33" s="3">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="14"/>
+        <v>131</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E34" s="3">
         <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="14"/>
-      <c r="C35" t="s">
-        <v>85</v>
-      </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E35" s="3">
         <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E36" s="3">
         <v>25</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="14"/>
+      <c r="F36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E37" s="3">
         <v>10</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>112</v>
+      <c r="F37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="14"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E38" s="3">
         <v>25</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="14"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="F39" s="10"/>
       <c r="G39" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="9" t="s">
-        <v>136</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>159</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="E41" s="3">
         <v>10</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>146</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E42" s="3">
         <v>45</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>150</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="E43" s="3">
         <v>52</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="H43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>157</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="F44" s="10"/>
       <c r="G44" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="12" t="s">
-        <v>128</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E46" s="3">
         <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="12"/>
+        <v>154</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="9"/>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E47" s="3">
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="9"/>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E48" s="3">
         <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E49" s="3">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E50" s="3">
         <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>165</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="14"/>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E51" s="3">
         <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="14" t="s">
-        <v>125</v>
+        <v>159</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E52" s="3">
         <v>25</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="14"/>
+      <c r="F52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E53" s="3">
         <v>10</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>112</v>
+      <c r="F53" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="H53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="14"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E54" s="3">
         <v>25</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
       <c r="H54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="14"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="F55" s="10"/>
       <c r="G55" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="9" t="s">
-        <v>136</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>159</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="E57" s="3">
         <v>10</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
       <c r="H57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>146</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E58" s="3">
         <v>45</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
       <c r="H58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>150</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="E59" s="3">
         <v>52</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
       <c r="H59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>157</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F60" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="F60" s="10"/>
       <c r="G60" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G46:G51"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="A29:A44"/>
-    <mergeCell ref="A45:A60"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="F37:F44"/>
-    <mergeCell ref="F53:F60"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G21:G28"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="G40:G43"/>
@@ -2630,26 +2644,30 @@
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F37:F44"/>
+    <mergeCell ref="F53:F60"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="A29:A44"/>
+    <mergeCell ref="A45:A60"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B52:B59"/>
     <mergeCell ref="B2:B11"/>
-    <mergeCell ref="G4:G11"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G46:G51"/>
+    <mergeCell ref="G30:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solett\Documents\monke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solet\Documents\Jedlik\MonkeBricks\monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438BFCF4-A2D0-4901-8DA8-2AF39BB604BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ED0C8B-390C-4622-AE72-56BD8F0FF65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="VLAN" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="182">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -557,6 +557,42 @@
   </si>
   <si>
     <t>ge-1/0/13.0</t>
+  </si>
+  <si>
+    <t>ge-0/0/20</t>
+  </si>
+  <si>
+    <t>ge-0/0/21</t>
+  </si>
+  <si>
+    <t>ge-0/0/22</t>
+  </si>
+  <si>
+    <t>ge-0/0/23</t>
+  </si>
+  <si>
+    <t>ge-0/0/20.0</t>
+  </si>
+  <si>
+    <t>ge-0/0/21.0</t>
+  </si>
+  <si>
+    <t>ge-0/0/22.0</t>
+  </si>
+  <si>
+    <t>ge-0/0/23.0</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>201;25</t>
+  </si>
+  <si>
+    <t>172.24.25.21/24</t>
+  </si>
+  <si>
+    <t>172.28.25.21/24</t>
   </si>
 </sst>
 </file>
@@ -609,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -624,12 +660,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -637,17 +672,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,14 +1001,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -998,7 +1030,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
@@ -1009,7 +1041,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>45</v>
       </c>
@@ -1020,7 +1052,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>52</v>
       </c>
@@ -1031,7 +1063,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>84</v>
       </c>
@@ -1042,7 +1074,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18</v>
       </c>
@@ -1053,7 +1085,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>201</v>
       </c>
@@ -1078,13 +1110,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1092,7 +1124,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1100,7 +1132,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1121,16 +1153,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1161,7 +1193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1175,7 +1207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1192,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1209,7 +1241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1243,7 +1275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1260,7 +1292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1291,14 +1323,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1315,7 +1347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1346,7 +1378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1376,15 +1408,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1401,7 +1433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1415,7 +1447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1432,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1456,24 +1488,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C47942-4AB3-49AD-9117-C136C35EE9A3}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1498,186 +1537,377 @@
       <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
+      <c r="J2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="3">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="8"/>
+      <c r="L4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="3">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="8"/>
+      <c r="L5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="3">
+        <v>84</v>
+      </c>
+      <c r="N5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>10</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
       <c r="H6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
       <c r="H7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="J7" s="11"/>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="3">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>45</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
       <c r="H8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="3">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
       <c r="H9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="J9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="3">
+        <v>25</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>52</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="9"/>
       <c r="H10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="J10" s="11"/>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="3">
+        <v>25</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
       <c r="H11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="3">
+        <v>10</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C12" t="s">
@@ -1692,14 +1922,31 @@
       <c r="F12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+      <c r="H12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="3">
+        <v>201</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" t="s">
         <v>102</v>
       </c>
@@ -1707,21 +1954,38 @@
         <v>104</v>
       </c>
       <c r="E13" s="3">
-        <v>10</v>
-      </c>
-      <c r="F13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>105</v>
       </c>
       <c r="H13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
       <c r="C14" t="s">
         <v>103</v>
       </c>
@@ -1729,17 +1993,32 @@
         <v>106</v>
       </c>
       <c r="E14" s="3">
-        <v>25</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="3">
+        <v>10</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" t="s">
         <v>109</v>
       </c>
@@ -1747,19 +2026,34 @@
         <v>111</v>
       </c>
       <c r="E15" s="3">
-        <v>10</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" s="3">
+        <v>45</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" t="s">
         <v>110</v>
       </c>
@@ -1767,227 +2061,278 @@
         <v>169</v>
       </c>
       <c r="E16" s="3">
-        <v>25</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="3">
+        <v>52</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" t="s">
         <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
+      <c r="J17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" s="3">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" t="s">
         <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>118</v>
       </c>
       <c r="H19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="11"/>
       <c r="C20" t="s">
         <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
       <c r="H20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" t="s">
         <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
         <v>140</v>
       </c>
       <c r="H21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" t="s">
         <v>87</v>
       </c>
       <c r="D22" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="H22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>10</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="11"/>
       <c r="C24" t="s">
         <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" t="s">
         <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>45</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="H25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>95</v>
       </c>
       <c r="D26" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="11"/>
       <c r="C27" t="s">
         <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>52</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="11"/>
       <c r="C28" t="s">
         <v>97</v>
       </c>
       <c r="D28" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
@@ -2009,10 +2354,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="9" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D30" t="s">
@@ -2024,17 +2369,17 @@
       <c r="F30" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="9"/>
+      <c r="H30" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="8"/>
       <c r="D31" t="s">
         <v>124</v>
       </c>
@@ -2044,13 +2389,13 @@
       <c r="F31" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="8"/>
       <c r="D32" t="s">
         <v>125</v>
       </c>
@@ -2060,12 +2405,12 @@
       <c r="F32" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" t="s">
         <v>122</v>
       </c>
@@ -2078,14 +2423,14 @@
       <c r="F33" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="11"/>
       <c r="C34" t="s">
         <v>77</v>
       </c>
@@ -2098,14 +2443,14 @@
       <c r="F34" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
       <c r="C35" t="s">
         <v>78</v>
       </c>
@@ -2118,14 +2463,14 @@
       <c r="F35" t="s">
         <v>136</v>
       </c>
-      <c r="G35" s="10"/>
+      <c r="G35" s="9"/>
       <c r="H35" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C36" t="s">
@@ -2140,14 +2485,14 @@
       <c r="F36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
       <c r="C37" t="s">
         <v>102</v>
       </c>
@@ -2155,21 +2500,21 @@
         <v>104</v>
       </c>
       <c r="E37" s="3">
-        <v>10</v>
-      </c>
-      <c r="F37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>105</v>
       </c>
       <c r="H37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
       <c r="C38" t="s">
         <v>103</v>
       </c>
@@ -2177,17 +2522,17 @@
         <v>106</v>
       </c>
       <c r="E38" s="3">
-        <v>25</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
       <c r="H38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
       <c r="C39" t="s">
         <v>73</v>
       </c>
@@ -2197,7 +2542,7 @@
       <c r="E39" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="2" t="s">
         <v>117</v>
       </c>
@@ -2205,92 +2550,95 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="6" t="s">
-        <v>129</v>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" t="s">
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
         <v>75</v>
       </c>
       <c r="H40" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="4" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="E41" s="3">
         <v>10</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="4" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="E42" s="3">
         <v>45</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
       <c r="H42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="4" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="E43" s="3">
         <v>52</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="7" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="D44" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E44" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="10"/>
+        <v>179</v>
+      </c>
+      <c r="F44" s="9"/>
       <c r="G44" s="2" t="s">
         <v>118</v>
       </c>
@@ -2298,342 +2646,400 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>119</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="9" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E47" s="3">
         <v>18</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>154</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G47" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="9"/>
-      <c r="D47" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="8"/>
+      <c r="D48" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="3">
         <v>25</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>155</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="9"/>
-      <c r="D48" t="s">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="8"/>
+      <c r="D49" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E49" s="3">
         <v>84</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>156</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" t="s">
         <v>122</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E50" s="3">
         <v>10</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>157</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="4" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="11"/>
+      <c r="C51" t="s">
         <v>77</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E51" s="3">
         <v>45</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>158</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="4" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" t="s">
         <v>78</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E52" s="3">
         <v>52</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="4" t="s">
+      <c r="G52" s="9"/>
+      <c r="H52" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>53</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="3">
         <v>25</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G53" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" t="s">
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+      <c r="B54" s="11"/>
+      <c r="C54" t="s">
         <v>102</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>104</v>
-      </c>
-      <c r="E53" s="3">
-        <v>10</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" t="s">
-        <v>106</v>
       </c>
       <c r="E54" s="3">
         <v>25</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="F54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="H54" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="12"/>
+      <c r="B55" s="11"/>
       <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="3">
+        <v>10</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="C56" t="s">
         <v>73</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="2" t="s">
+      <c r="E56" s="3">
+        <v>201</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H56" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="6" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" s="11"/>
+      <c r="C57" t="s">
         <v>129</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>151</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H57" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="4" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="12"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E58" s="3">
         <v>10</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="4" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="12"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="3">
         <v>45</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="4" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E60" s="3">
         <v>52</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="7" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="2" t="s">
+      <c r="D61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="11"/>
+      <c r="C62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>181</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G4:G11"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F4:F5"/>
+  <mergeCells count="68">
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O3:O8"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="J9:J16"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N10:N17"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="A29:A45"/>
+    <mergeCell ref="A46:A61"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="F37:F44"/>
     <mergeCell ref="G21:G28"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="G40:G43"/>
@@ -2644,30 +3050,29 @@
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F37:F44"/>
-    <mergeCell ref="F53:F60"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F13:F28"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="A29:A44"/>
-    <mergeCell ref="A45:A60"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="B2:B11"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G46:G51"/>
     <mergeCell ref="G30:G35"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solet\Documents\Jedlik\MonkeBricks\monke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solett\Documents\monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ED0C8B-390C-4622-AE72-56BD8F0FF65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA084D8F-BF48-416A-AEED-1B895CFE9D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="182">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -645,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -661,26 +661,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -998,17 +999,17 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>45</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>52</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>84</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>201</v>
       </c>
@@ -1110,13 +1111,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1150,19 +1151,19 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1323,14 +1324,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1408,15 +1409,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1490,29 +1491,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C47942-4AB3-49AD-9117-C136C35EE9A3}">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:P18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1537,377 +1538,263 @@
       <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="3">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>154</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="8"/>
-      <c r="L4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="3">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="8"/>
-      <c r="L5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" s="3">
-        <v>84</v>
-      </c>
-      <c r="N5" t="s">
-        <v>156</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="7"/>
       <c r="H6" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" s="3">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>157</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
       <c r="H7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M7" s="3">
-        <v>45</v>
-      </c>
-      <c r="N7" t="s">
-        <v>158</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>45</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="7"/>
       <c r="H8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>134</v>
-      </c>
-      <c r="M8" s="3">
-        <v>52</v>
-      </c>
-      <c r="N8" t="s">
-        <v>159</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
       <c r="H9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="3">
-        <v>25</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>52</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="7"/>
       <c r="H10" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" s="3">
-        <v>25</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
       <c r="H11" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="3">
-        <v>10</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C12" t="s">
@@ -1922,31 +1809,21 @@
       <c r="F12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M12" s="3">
-        <v>201</v>
-      </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
+      <c r="H12" s="6"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>102</v>
       </c>
@@ -1956,36 +1833,26 @@
       <c r="E13" s="3">
         <v>25</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>105</v>
       </c>
       <c r="H13" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>103</v>
       </c>
@@ -1995,30 +1862,22 @@
       <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M14" s="3">
-        <v>10</v>
-      </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>109</v>
       </c>
@@ -2028,32 +1887,24 @@
       <c r="E15" s="3">
         <v>25</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H15" t="s">
         <v>107</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M15" s="3">
-        <v>45</v>
-      </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>110</v>
       </c>
@@ -2063,276 +1914,274 @@
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M16" s="3">
-        <v>52</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
         <v>117</v>
       </c>
       <c r="H17" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="P17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="M18" s="3">
-        <v>25</v>
-      </c>
-      <c r="N18" t="s">
-        <v>181</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
         <v>118</v>
       </c>
       <c r="H19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="11"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
       <c r="H20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
         <v>140</v>
       </c>
       <c r="H21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>87</v>
       </c>
       <c r="D22" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
       <c r="H22" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>10</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="11"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="H24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>45</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
       <c r="H25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>95</v>
       </c>
       <c r="D26" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
       <c r="H26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <v>52</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
       <c r="H27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>97</v>
       </c>
       <c r="D28" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
       <c r="H28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
@@ -2354,10 +2203,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="8" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D30" t="s">
@@ -2369,17 +2218,17 @@
       <c r="F30" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="8"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
       <c r="D31" t="s">
         <v>124</v>
       </c>
@@ -2389,13 +2238,13 @@
       <c r="F31" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="8"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
       <c r="D32" t="s">
         <v>125</v>
       </c>
@@ -2405,12 +2254,12 @@
       <c r="F32" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>122</v>
       </c>
@@ -2423,14 +2272,14 @@
       <c r="F33" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="11"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>77</v>
       </c>
@@ -2443,14 +2292,14 @@
       <c r="F34" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>78</v>
       </c>
@@ -2463,14 +2312,14 @@
       <c r="F35" t="s">
         <v>136</v>
       </c>
-      <c r="G35" s="9"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C36" t="s">
@@ -2485,14 +2334,14 @@
       <c r="F36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>102</v>
       </c>
@@ -2502,19 +2351,19 @@
       <c r="E37" s="3">
         <v>25</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="7" t="s">
         <v>105</v>
       </c>
       <c r="H37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>103</v>
       </c>
@@ -2524,15 +2373,15 @@
       <c r="E38" s="3">
         <v>10</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
       <c r="H38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="11"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>73</v>
       </c>
@@ -2542,7 +2391,7 @@
       <c r="E39" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="2" t="s">
         <v>117</v>
       </c>
@@ -2550,9 +2399,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="11"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>170</v>
       </c>
@@ -2562,17 +2411,17 @@
       <c r="E40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
         <v>75</v>
       </c>
       <c r="H40" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="11"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="4" t="s">
         <v>171</v>
       </c>
@@ -2582,15 +2431,15 @@
       <c r="E41" s="3">
         <v>10</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="H41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="11"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="4" t="s">
         <v>172</v>
       </c>
@@ -2600,15 +2449,15 @@
       <c r="E42" s="3">
         <v>45</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
       <c r="H42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="11"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="4" t="s">
         <v>173</v>
       </c>
@@ -2618,15 +2467,15 @@
       <c r="E43" s="3">
         <v>52</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
       <c r="H43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="11" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2638,7 +2487,7 @@
       <c r="E44" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="2" t="s">
         <v>118</v>
       </c>
@@ -2646,9 +2495,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="11"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="3" t="s">
         <v>53</v>
       </c>
@@ -2661,16 +2510,16 @@
       <c r="F45" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C46" t="s">
@@ -2692,10 +2541,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="8" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D47" t="s">
@@ -2707,17 +2556,17 @@
       <c r="F47" t="s">
         <v>154</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="8"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
       <c r="D48" t="s">
         <v>124</v>
       </c>
@@ -2727,13 +2576,13 @@
       <c r="F48" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="8"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
       <c r="D49" t="s">
         <v>125</v>
       </c>
@@ -2743,12 +2592,12 @@
       <c r="F49" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="11"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="8"/>
       <c r="C50" t="s">
         <v>122</v>
       </c>
@@ -2761,14 +2610,14 @@
       <c r="F50" t="s">
         <v>157</v>
       </c>
-      <c r="G50" s="9"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="11"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="8"/>
       <c r="C51" t="s">
         <v>77</v>
       </c>
@@ -2781,14 +2630,14 @@
       <c r="F51" t="s">
         <v>158</v>
       </c>
-      <c r="G51" s="9"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
-      <c r="B52" s="11"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="8"/>
       <c r="C52" t="s">
         <v>78</v>
       </c>
@@ -2801,14 +2650,14 @@
       <c r="F52" t="s">
         <v>159</v>
       </c>
-      <c r="G52" s="9"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="11" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C53" t="s">
@@ -2823,14 +2672,14 @@
       <c r="F53" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="11"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="8"/>
       <c r="C54" t="s">
         <v>102</v>
       </c>
@@ -2840,19 +2689,19 @@
       <c r="E54" s="3">
         <v>25</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="7" t="s">
         <v>105</v>
       </c>
       <c r="H54" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="11"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="8"/>
       <c r="C55" t="s">
         <v>103</v>
       </c>
@@ -2862,15 +2711,15 @@
       <c r="E55" s="3">
         <v>10</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
       <c r="H55" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="11"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="8"/>
       <c r="C56" t="s">
         <v>73</v>
       </c>
@@ -2880,7 +2729,7 @@
       <c r="E56" s="3">
         <v>201</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="2" t="s">
         <v>117</v>
       </c>
@@ -2888,9 +2737,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="11"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="8"/>
       <c r="C57" t="s">
         <v>129</v>
       </c>
@@ -2900,17 +2749,17 @@
       <c r="E57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9" t="s">
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="s">
         <v>75</v>
       </c>
       <c r="H57" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="11"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="4" t="s">
         <v>132</v>
       </c>
@@ -2920,15 +2769,15 @@
       <c r="E58" s="3">
         <v>10</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
       <c r="H58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="11"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="4" t="s">
         <v>71</v>
       </c>
@@ -2938,15 +2787,15 @@
       <c r="E59" s="3">
         <v>45</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
       <c r="H59" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="11"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="4" t="s">
         <v>72</v>
       </c>
@@ -2956,15 +2805,15 @@
       <c r="E60" s="3">
         <v>52</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
       <c r="H60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="11" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -2976,7 +2825,7 @@
       <c r="E61" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="2" t="s">
         <v>118</v>
       </c>
@@ -2984,8 +2833,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="11"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
       <c r="C62" s="3" t="s">
         <v>53</v>
       </c>
@@ -2998,29 +2847,49 @@
       <c r="F62" t="s">
         <v>181</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="H62" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O3:O8"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="J9:J16"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N10:N17"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="G54:G55"/>
+  <mergeCells count="57">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B12:B28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="F37:F44"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G47:G52"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="A29:A45"/>
@@ -3037,42 +2906,11 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F13:F28"/>
-    <mergeCell ref="F37:F44"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B12:B28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G4:G11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="G54:G55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solett\Documents\monke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cuccok\Monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA084D8F-BF48-416A-AEED-1B895CFE9D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F90B46-A653-4F15-AB4A-FA858575B907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="VLAN" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="MB szerver címek" sheetId="4" r:id="rId4"/>
     <sheet name="TH szerver címek" sheetId="5" r:id="rId5"/>
     <sheet name="Hálózati eszközök" sheetId="6" r:id="rId6"/>
+    <sheet name="Árajánlat" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="211">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -593,13 +594,103 @@
   </si>
   <si>
     <t>172.28.25.21/24</t>
+  </si>
+  <si>
+    <t>Eszköz/Komponens</t>
+  </si>
+  <si>
+    <t>Mennyiség (db)</t>
+  </si>
+  <si>
+    <t>Egységár (EUR)</t>
+  </si>
+  <si>
+    <t>Összesen (EUR)</t>
+  </si>
+  <si>
+    <t>Források</t>
+  </si>
+  <si>
+    <t>Juniper eszközök</t>
+  </si>
+  <si>
+    <t>Juniper SRX300 tűzfal</t>
+  </si>
+  <si>
+    <t>it-planet.com</t>
+  </si>
+  <si>
+    <t>Juniper EX2300 switch</t>
+  </si>
+  <si>
+    <t>Juniper EX4100 switch</t>
+  </si>
+  <si>
+    <t>Juniper AP47 access point</t>
+  </si>
+  <si>
+    <t>getozark.com</t>
+  </si>
+  <si>
+    <t>Juniper támogatás (next business day RMA)</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Szerződés alapján</t>
+  </si>
+  <si>
+    <t>Juniper eszközök összesen</t>
+  </si>
+  <si>
+    <t>IBM eszközök</t>
+  </si>
+  <si>
+    <t>IBM System x3250 M5 szerver</t>
+  </si>
+  <si>
+    <t>server2u.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, Senetic – </t>
+  </si>
+  <si>
+    <t>IBM támogatás (azonnali cserével)</t>
+  </si>
+  <si>
+    <t>Server2U, Lenovo</t>
+  </si>
+  <si>
+    <t>IBM eszközök összesen</t>
+  </si>
+  <si>
+    <t>Végösszeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT-Planet, Ubuy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubuy, IT-Planet </t>
+  </si>
+  <si>
+    <t>IT-Planet, Router</t>
+  </si>
+  <si>
+    <t>Ozark Solutions</t>
+  </si>
+  <si>
+    <t>senetic.de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +715,32 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -642,10 +759,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -661,19 +779,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -681,9 +793,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1491,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C47942-4AB3-49AD-9117-C136C35EE9A3}">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1538,263 +1694,263 @@
       <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>10</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="6"/>
       <c r="H6" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
       <c r="H7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>45</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
       <c r="H8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
       <c r="H9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>52</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
       <c r="H10" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
       <c r="H11" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C12" t="s">
@@ -1809,21 +1965,21 @@
       <c r="F12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="H12" s="8"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" t="s">
         <v>102</v>
       </c>
@@ -1833,26 +1989,26 @@
       <c r="E13" s="3">
         <v>25</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>105</v>
       </c>
       <c r="H13" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
       <c r="C14" t="s">
         <v>103</v>
       </c>
@@ -1862,22 +2018,22 @@
       <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" t="s">
         <v>109</v>
       </c>
@@ -1887,24 +2043,24 @@
       <c r="E15" s="3">
         <v>25</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H15" t="s">
         <v>107</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" t="s">
         <v>110</v>
       </c>
@@ -1914,274 +2070,274 @@
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" t="s">
         <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
         <v>117</v>
       </c>
       <c r="H17" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
       <c r="H18" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" t="s">
         <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>118</v>
       </c>
       <c r="H19" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="11"/>
       <c r="C20" t="s">
         <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
       <c r="H20" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" t="s">
         <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>140</v>
       </c>
       <c r="H21" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" t="s">
         <v>87</v>
       </c>
       <c r="D22" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" t="s">
         <v>142</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>10</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="11"/>
       <c r="C24" t="s">
         <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" t="s">
         <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>45</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="H25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>95</v>
       </c>
       <c r="D26" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="11"/>
       <c r="C27" t="s">
         <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>52</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
       <c r="H27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="11"/>
       <c r="C28" t="s">
         <v>97</v>
       </c>
       <c r="D28" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
       <c r="H28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
@@ -2204,9 +2360,9 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D30" t="s">
@@ -2218,17 +2374,17 @@
       <c r="F30" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="7"/>
       <c r="D31" t="s">
         <v>124</v>
       </c>
@@ -2238,13 +2394,13 @@
       <c r="F31" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="9"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="7"/>
       <c r="D32" t="s">
         <v>125</v>
       </c>
@@ -2254,12 +2410,12 @@
       <c r="F32" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="9"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" t="s">
         <v>122</v>
       </c>
@@ -2272,14 +2428,14 @@
       <c r="F33" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="11"/>
       <c r="C34" t="s">
         <v>77</v>
       </c>
@@ -2292,14 +2448,14 @@
       <c r="F34" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
       <c r="C35" t="s">
         <v>78</v>
       </c>
@@ -2312,14 +2468,14 @@
       <c r="F35" t="s">
         <v>136</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C36" t="s">
@@ -2334,14 +2490,14 @@
       <c r="F36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
       <c r="C37" t="s">
         <v>102</v>
       </c>
@@ -2351,10 +2507,10 @@
       <c r="E37" s="3">
         <v>25</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>105</v>
       </c>
       <c r="H37" t="s">
@@ -2362,8 +2518,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
       <c r="C38" t="s">
         <v>103</v>
       </c>
@@ -2373,15 +2529,15 @@
       <c r="E38" s="3">
         <v>10</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
       <c r="H38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
       <c r="C39" t="s">
         <v>73</v>
       </c>
@@ -2391,7 +2547,7 @@
       <c r="E39" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="6"/>
       <c r="G39" s="2" t="s">
         <v>117</v>
       </c>
@@ -2400,8 +2556,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
       <c r="C40" t="s">
         <v>170</v>
       </c>
@@ -2411,8 +2567,8 @@
       <c r="E40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H40" t="s">
@@ -2420,8 +2576,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="4" t="s">
         <v>171</v>
       </c>
@@ -2431,15 +2587,15 @@
       <c r="E41" s="3">
         <v>10</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
       <c r="H41" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="4" t="s">
         <v>172</v>
       </c>
@@ -2449,15 +2605,15 @@
       <c r="E42" s="3">
         <v>45</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
       <c r="H42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="4" t="s">
         <v>173</v>
       </c>
@@ -2467,15 +2623,15 @@
       <c r="E43" s="3">
         <v>52</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
       <c r="H43" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2487,7 +2643,7 @@
       <c r="E44" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="2" t="s">
         <v>118</v>
       </c>
@@ -2496,8 +2652,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="3" t="s">
         <v>53</v>
       </c>
@@ -2510,16 +2666,16 @@
       <c r="F45" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="6"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C46" t="s">
@@ -2542,9 +2698,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D47" t="s">
@@ -2556,17 +2712,17 @@
       <c r="F47" t="s">
         <v>154</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="7"/>
       <c r="D48" t="s">
         <v>124</v>
       </c>
@@ -2576,13 +2732,13 @@
       <c r="F48" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="7"/>
       <c r="D49" t="s">
         <v>125</v>
       </c>
@@ -2592,12 +2748,12 @@
       <c r="F49" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="11"/>
       <c r="C50" t="s">
         <v>122</v>
       </c>
@@ -2610,14 +2766,14 @@
       <c r="F50" t="s">
         <v>157</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="11"/>
       <c r="C51" t="s">
         <v>77</v>
       </c>
@@ -2630,14 +2786,14 @@
       <c r="F51" t="s">
         <v>158</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="11"/>
       <c r="C52" t="s">
         <v>78</v>
       </c>
@@ -2650,14 +2806,14 @@
       <c r="F52" t="s">
         <v>159</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C53" t="s">
@@ -2672,14 +2828,14 @@
       <c r="F53" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="11"/>
       <c r="C54" t="s">
         <v>102</v>
       </c>
@@ -2689,10 +2845,10 @@
       <c r="E54" s="3">
         <v>25</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="6" t="s">
         <v>105</v>
       </c>
       <c r="H54" t="s">
@@ -2700,8 +2856,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="11"/>
       <c r="C55" t="s">
         <v>103</v>
       </c>
@@ -2711,15 +2867,15 @@
       <c r="E55" s="3">
         <v>10</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
       <c r="H55" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="11"/>
       <c r="C56" t="s">
         <v>73</v>
       </c>
@@ -2729,7 +2885,7 @@
       <c r="E56" s="3">
         <v>201</v>
       </c>
-      <c r="F56" s="7"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="2" t="s">
         <v>117</v>
       </c>
@@ -2738,8 +2894,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="11"/>
       <c r="C57" t="s">
         <v>129</v>
       </c>
@@ -2749,8 +2905,8 @@
       <c r="E57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7" t="s">
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H57" t="s">
@@ -2758,8 +2914,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="4" t="s">
         <v>132</v>
       </c>
@@ -2769,15 +2925,15 @@
       <c r="E58" s="3">
         <v>10</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
       <c r="H58" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="4" t="s">
         <v>71</v>
       </c>
@@ -2787,15 +2943,15 @@
       <c r="E59" s="3">
         <v>45</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
       <c r="H59" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="4" t="s">
         <v>72</v>
       </c>
@@ -2805,15 +2961,15 @@
       <c r="E60" s="3">
         <v>52</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
       <c r="H60" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="12"/>
+      <c r="B61" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -2825,7 +2981,7 @@
       <c r="E61" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F61" s="7"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="2" t="s">
         <v>118</v>
       </c>
@@ -2834,7 +2990,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="3" t="s">
         <v>53</v>
       </c>
@@ -2847,47 +3003,18 @@
       <c r="F62" t="s">
         <v>181</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H62" s="6"/>
+      <c r="H62" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G4:G11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B12:B28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F13:F28"/>
-    <mergeCell ref="F37:F44"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="G54:G55"/>
     <mergeCell ref="G40:G43"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G47:G52"/>
@@ -2904,15 +3031,378 @@
     <mergeCell ref="F54:F61"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B12:B28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="G21:G28"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="F37:F44"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D67D52-A437-4699-A5AD-1622B96522DD}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="21">
+        <v>4</v>
+      </c>
+      <c r="C3" s="22">
+        <v>500</v>
+      </c>
+      <c r="D3" s="22">
+        <f>(B3*C3)</f>
+        <v>2000</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="21">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22">
+        <v>755</v>
+      </c>
+      <c r="D5" s="22">
+        <f>(B5*C5)</f>
+        <v>2265</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="24">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25">
+        <v>2450</v>
+      </c>
+      <c r="D7" s="22">
+        <f>(B7*C7)</f>
+        <v>2450</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="21">
+        <v>20</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1600</v>
+      </c>
+      <c r="D9" s="22">
+        <f>(B9*C9)</f>
+        <v>32000</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="22">
+        <v>5800</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="20">
+        <f>SUM(D3:D12)</f>
+        <v>44515</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="21">
+        <v>4</v>
+      </c>
+      <c r="C15" s="22">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="22">
+        <f>(B15*C15)</f>
+        <v>12000</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21">
+        <v>4</v>
+      </c>
+      <c r="C17" s="22">
+        <v>840</v>
+      </c>
+      <c r="D17" s="22">
+        <f t="shared" ref="D17" si="0">(B17*C17)</f>
+        <v>3360</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="20">
+        <f>SUM(D15:D19)</f>
+        <v>16560</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="20">
+        <f>SUM(D13,D20)</f>
+        <v>61075</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" display="https://it-planet.com/en/p/junipernetworks-srx300-sys-je-460164.html" xr:uid="{AAF755E3-E3EE-47F8-8275-9017201641AD}"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://it-planet.com/en/p/junipernetworks-ex2300-48p-746.html" xr:uid="{A2408FFB-D855-4C25-81AE-82430F882966}"/>
+    <hyperlink ref="E8" r:id="rId3" display="https://it-planet.com/en/p/junipernetworks-ex4100-48mp-461663.html" xr:uid="{4EF59466-0553-4FCE-91E5-62BC7B48A821}"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://www.getozark.com/juniper-ap47-wi-fi-7-indoor-wireless-bluetooth-access-point-with-internal-directional-external-antenna-white/" xr:uid="{F4043C6D-CFF7-4922-86FA-62962190DAF9}"/>
+    <hyperlink ref="E16" r:id="rId5" display="https://www.server2u.com/shop/x3250m5-ibm-system-x3250-m5-1u-rack-server-e3-1220v3-8gb-2x480gb-56133?srsltid=AfmBOooPtGqEtOCQRqh1ri-9Gs7HCuxjGxXJLrUCz1w0MCgC7MkkNAsz" xr:uid="{BBC6524A-FB37-47FC-947A-4BCE7A900B75}"/>
+    <hyperlink ref="E18" r:id="rId6" xr:uid="{7864CE6D-869B-4815-AB13-0F25049856BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cuccok\Monke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solett\Documents\monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F90B46-A653-4F15-AB4A-FA858575B907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606F441-D23B-4D00-81F8-D3DB32D9E53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="VLAN" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="212">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -626,9 +626,6 @@
     <t>Juniper EX4100 switch</t>
   </si>
   <si>
-    <t>Juniper AP47 access point</t>
-  </si>
-  <si>
     <t>getozark.com</t>
   </si>
   <si>
@@ -681,6 +678,12 @@
   </si>
   <si>
     <t>senetic.de</t>
+  </si>
+  <si>
+    <t>Juniper AP45 access point</t>
+  </si>
+  <si>
+    <t>Windows Server 2025 Standard Licenc</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -778,27 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -809,21 +791,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -831,11 +837,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1703,28 +1706,28 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="15" t="s">
         <v>53</v>
       </c>
       <c r="J2" s="1"/>
@@ -1736,16 +1739,16 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1755,21 +1758,21 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="15" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -1784,15 +1787,15 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="4" t="s">
         <v>87</v>
       </c>
@@ -1805,21 +1808,21 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="15">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="15"/>
       <c r="H6" t="s">
         <v>72</v>
       </c>
@@ -1832,15 +1835,15 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="15"/>
       <c r="H7" t="s">
         <v>88</v>
       </c>
@@ -1853,21 +1856,21 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="15">
         <v>45</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="15"/>
       <c r="H8" t="s">
         <v>94</v>
       </c>
@@ -1880,15 +1883,15 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="15"/>
       <c r="H9" t="s">
         <v>95</v>
       </c>
@@ -1901,21 +1904,21 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="15">
         <v>52</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="15"/>
       <c r="H10" t="s">
         <v>96</v>
       </c>
@@ -1928,15 +1931,15 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="15"/>
       <c r="H11" t="s">
         <v>97</v>
       </c>
@@ -1949,8 +1952,8 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C12" t="s">
@@ -1965,10 +1968,10 @@
       <c r="F12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="14"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1978,8 +1981,8 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" t="s">
         <v>102</v>
       </c>
@@ -1989,10 +1992,10 @@
       <c r="E13" s="3">
         <v>25</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="15" t="s">
         <v>105</v>
       </c>
       <c r="H13" t="s">
@@ -2007,8 +2010,8 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" t="s">
         <v>103</v>
       </c>
@@ -2018,8 +2021,8 @@
       <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" t="s">
         <v>108</v>
       </c>
@@ -2032,8 +2035,8 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" t="s">
         <v>109</v>
       </c>
@@ -2043,8 +2046,8 @@
       <c r="E15" s="3">
         <v>25</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H15" t="s">
@@ -2059,8 +2062,8 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" t="s">
         <v>110</v>
       </c>
@@ -2070,8 +2073,8 @@
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" t="s">
         <v>108</v>
       </c>
@@ -2084,19 +2087,19 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" t="s">
         <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
         <v>117</v>
       </c>
       <c r="H17" t="s">
@@ -2111,17 +2114,17 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" t="s">
         <v>93</v>
       </c>
@@ -2134,17 +2137,17 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" t="s">
         <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
         <v>118</v>
       </c>
       <c r="H19" t="s">
@@ -2159,17 +2162,17 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" t="s">
         <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
       <c r="H20" t="s">
         <v>74</v>
       </c>
@@ -2182,19 +2185,19 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" t="s">
         <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
         <v>140</v>
       </c>
       <c r="H21" t="s">
@@ -2209,17 +2212,17 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
       <c r="C22" t="s">
         <v>87</v>
       </c>
       <c r="D22" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
       <c r="H22" t="s">
         <v>142</v>
       </c>
@@ -2232,112 +2235,112 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" t="s">
         <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="15">
         <v>10</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
       <c r="H23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" t="s">
         <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
       <c r="C25" t="s">
         <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="15">
         <v>45</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
       <c r="C26" t="s">
         <v>95</v>
       </c>
       <c r="D26" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
       <c r="H26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" t="s">
         <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="15">
         <v>52</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
       <c r="C28" t="s">
         <v>97</v>
       </c>
       <c r="D28" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
       <c r="H28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
@@ -2360,9 +2363,9 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D30" t="s">
@@ -2374,17 +2377,17 @@
       <c r="F30" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" t="s">
         <v>124</v>
       </c>
@@ -2394,13 +2397,13 @@
       <c r="F31" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
       <c r="D32" t="s">
         <v>125</v>
       </c>
@@ -2410,12 +2413,12 @@
       <c r="F32" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
       <c r="C33" t="s">
         <v>122</v>
       </c>
@@ -2428,14 +2431,14 @@
       <c r="F33" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
       <c r="C34" t="s">
         <v>77</v>
       </c>
@@ -2448,14 +2451,14 @@
       <c r="F34" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="6"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" t="s">
         <v>78</v>
       </c>
@@ -2468,14 +2471,14 @@
       <c r="F35" t="s">
         <v>136</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C36" t="s">
@@ -2490,14 +2493,14 @@
       <c r="F36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" t="s">
         <v>102</v>
       </c>
@@ -2507,10 +2510,10 @@
       <c r="E37" s="3">
         <v>25</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="15" t="s">
         <v>105</v>
       </c>
       <c r="H37" t="s">
@@ -2518,8 +2521,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
       <c r="C38" t="s">
         <v>103</v>
       </c>
@@ -2529,15 +2532,15 @@
       <c r="E38" s="3">
         <v>10</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
       <c r="H38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" t="s">
         <v>73</v>
       </c>
@@ -2547,7 +2550,7 @@
       <c r="E39" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="2" t="s">
         <v>117</v>
       </c>
@@ -2556,8 +2559,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" t="s">
         <v>170</v>
       </c>
@@ -2567,8 +2570,8 @@
       <c r="E40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15" t="s">
         <v>75</v>
       </c>
       <c r="H40" t="s">
@@ -2576,8 +2579,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="4" t="s">
         <v>171</v>
       </c>
@@ -2587,15 +2590,15 @@
       <c r="E41" s="3">
         <v>10</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
       <c r="H41" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="4" t="s">
         <v>172</v>
       </c>
@@ -2605,15 +2608,15 @@
       <c r="E42" s="3">
         <v>45</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
       <c r="H42" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="4" t="s">
         <v>173</v>
       </c>
@@ -2623,15 +2626,15 @@
       <c r="E43" s="3">
         <v>52</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
       <c r="H43" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2643,7 +2646,7 @@
       <c r="E44" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="2" t="s">
         <v>118</v>
       </c>
@@ -2652,8 +2655,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="3" t="s">
         <v>53</v>
       </c>
@@ -2666,16 +2669,16 @@
       <c r="F45" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C46" t="s">
@@ -2698,9 +2701,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="7" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D47" t="s">
@@ -2712,17 +2715,17 @@
       <c r="F47" t="s">
         <v>154</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="7"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" t="s">
         <v>124</v>
       </c>
@@ -2732,13 +2735,13 @@
       <c r="F48" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="7"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" t="s">
         <v>125</v>
       </c>
@@ -2748,12 +2751,12 @@
       <c r="F49" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
       <c r="C50" t="s">
         <v>122</v>
       </c>
@@ -2766,14 +2769,14 @@
       <c r="F50" t="s">
         <v>157</v>
       </c>
-      <c r="G50" s="6"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
       <c r="C51" t="s">
         <v>77</v>
       </c>
@@ -2786,14 +2789,14 @@
       <c r="F51" t="s">
         <v>158</v>
       </c>
-      <c r="G51" s="6"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
       <c r="C52" t="s">
         <v>78</v>
       </c>
@@ -2806,14 +2809,14 @@
       <c r="F52" t="s">
         <v>159</v>
       </c>
-      <c r="G52" s="6"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C53" t="s">
@@ -2828,14 +2831,14 @@
       <c r="F53" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
       <c r="C54" t="s">
         <v>102</v>
       </c>
@@ -2845,10 +2848,10 @@
       <c r="E54" s="3">
         <v>25</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="15" t="s">
         <v>105</v>
       </c>
       <c r="H54" t="s">
@@ -2856,8 +2859,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
       <c r="C55" t="s">
         <v>103</v>
       </c>
@@ -2867,15 +2870,15 @@
       <c r="E55" s="3">
         <v>10</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
       <c r="H55" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
       <c r="C56" t="s">
         <v>73</v>
       </c>
@@ -2885,7 +2888,7 @@
       <c r="E56" s="3">
         <v>201</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="2" t="s">
         <v>117</v>
       </c>
@@ -2894,8 +2897,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
       <c r="C57" t="s">
         <v>129</v>
       </c>
@@ -2905,8 +2908,8 @@
       <c r="E57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6" t="s">
+      <c r="F57" s="15"/>
+      <c r="G57" s="15" t="s">
         <v>75</v>
       </c>
       <c r="H57" t="s">
@@ -2914,8 +2917,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="4" t="s">
         <v>132</v>
       </c>
@@ -2925,15 +2928,15 @@
       <c r="E58" s="3">
         <v>10</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
       <c r="H58" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="4" t="s">
         <v>71</v>
       </c>
@@ -2943,15 +2946,15 @@
       <c r="E59" s="3">
         <v>45</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
       <c r="H59" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="4" t="s">
         <v>72</v>
       </c>
@@ -2961,15 +2964,15 @@
       <c r="E60" s="3">
         <v>52</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
       <c r="H60" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -2981,7 +2984,7 @@
       <c r="E61" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F61" s="6"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="2" t="s">
         <v>118</v>
       </c>
@@ -2990,7 +2993,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="11"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="3" t="s">
         <v>53</v>
       </c>
@@ -3003,18 +3006,49 @@
       <c r="F62" t="s">
         <v>181</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H62" s="8"/>
+      <c r="H62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="F37:F44"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B12:B28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="G40:G43"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G47:G52"/>
@@ -3031,42 +3065,11 @@
     <mergeCell ref="F54:F61"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B12:B28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F13:F28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G4:G11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="F37:F44"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="G54:G55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3077,8 +3080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D67D52-A437-4699-A5AD-1622B96522DD}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,281 +3093,298 @@
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="22">
         <v>4</v>
       </c>
-      <c r="C3" s="22">
-        <v>500</v>
-      </c>
-      <c r="D3" s="22">
+      <c r="C3" s="21">
+        <v>900</v>
+      </c>
+      <c r="D3" s="21">
         <f>(B3*C3)</f>
-        <v>2000</v>
-      </c>
-      <c r="E3" s="16" t="s">
+        <v>3600</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="22">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1725</v>
+      </c>
+      <c r="D5" s="21">
+        <f>(B5*C5)</f>
+        <v>5175</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="18" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="21">
-        <v>3</v>
-      </c>
-      <c r="C5" s="22">
-        <v>755</v>
-      </c>
-      <c r="D5" s="22">
-        <f>(B5*C5)</f>
-        <v>2265</v>
-      </c>
-      <c r="E5" s="16" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26">
+        <v>7900</v>
+      </c>
+      <c r="D7" s="21">
+        <f>(B7*C7)</f>
+        <v>7900</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="18" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="24">
-        <v>1</v>
-      </c>
-      <c r="C7" s="25">
-        <v>2450</v>
-      </c>
-      <c r="D7" s="22">
-        <f>(B7*C7)</f>
-        <v>2450</v>
-      </c>
-      <c r="E7" s="16" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="22">
+        <v>13</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="21">
+        <f>(B9*C9)</f>
+        <v>19500</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="21">
-        <v>20</v>
-      </c>
-      <c r="C9" s="22">
-        <v>1600</v>
-      </c>
-      <c r="D9" s="22">
-        <f>(B9*C9)</f>
-        <v>32000</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="18" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="21">
+        <v>5800</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="22">
-        <v>5800</v>
-      </c>
-      <c r="E11" s="26" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13">
+        <f>SUM(D3:D12)</f>
+        <v>41975</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="20">
-        <f>SUM(D3:D12)</f>
-        <v>44515</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>4</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>3000</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <f>(B15*C15)</f>
         <v>12000</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>203</v>
+      <c r="E15" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="18" t="s">
-        <v>200</v>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21">
+      <c r="A17" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="22">
         <v>4</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>840</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <f t="shared" ref="D17" si="0">(B17*C17)</f>
         <v>3360</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="B19" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1200</v>
-      </c>
-      <c r="E19" s="16" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="20">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="13">
         <f>SUM(D15:D19)</f>
         <v>16560</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="20">
+      <c r="A21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="13">
         <f>SUM(D13,D20)</f>
-        <v>61075</v>
-      </c>
-      <c r="E21" s="15"/>
+        <v>58535</v>
+      </c>
+      <c r="E21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="A15:A16"/>
@@ -3379,21 +3399,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://it-planet.com/en/p/junipernetworks-srx300-sys-je-460164.html" xr:uid="{AAF755E3-E3EE-47F8-8275-9017201641AD}"/>

--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solett\Documents\monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606F441-D23B-4D00-81F8-D3DB32D9E53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F7466-D9B7-462C-B827-C7AE9A8A5080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="VLAN" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="209">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -104,9 +104,6 @@
     <t>loris</t>
   </si>
   <si>
-    <t>scvmm</t>
-  </si>
-  <si>
     <t>silverback2</t>
   </si>
   <si>
@@ -125,22 +122,13 @@
     <t>172.20.10.40</t>
   </si>
   <si>
-    <t>baboon</t>
-  </si>
-  <si>
     <t>172.20.10.50</t>
   </si>
   <si>
     <t>exhange mail</t>
   </si>
   <si>
-    <t>ansible, zabbix</t>
-  </si>
-  <si>
     <t>172.20.10.60</t>
-  </si>
-  <si>
-    <t>172.20.10.70</t>
   </si>
   <si>
     <t>OS</t>
@@ -684,6 +672,9 @@
   </si>
   <si>
     <t>Windows Server 2025 Standard Licenc</t>
+  </si>
+  <si>
+    <t>zabbix</t>
   </si>
 </sst>
 </file>
@@ -802,19 +793,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -822,10 +807,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1187,7 +1178,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,7 +1189,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,7 +1200,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1220,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1231,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1242,7 +1233,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,10 +1241,10 @@
         <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1278,26 +1269,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1307,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6E3A52-EA1F-4DC3-A424-AC94E711F493}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,10 +1324,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1350,21 +1341,21 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1372,13 +1363,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1389,13 +1380,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1403,19 +1394,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1423,49 +1414,32 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1501,10 +1475,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1512,13 +1486,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1526,13 +1500,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -1543,13 +1517,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1587,10 +1561,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1598,13 +1572,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1612,13 +1586,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -1629,13 +1603,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1674,28 +1648,28 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1706,29 +1680,29 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>82</v>
+      <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>53</v>
+        <v>73</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1739,16 +1713,16 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="19"/>
       <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+        <v>79</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1758,25 +1732,25 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1787,17 +1761,17 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="15"/>
+        <v>138</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1808,23 +1782,23 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
       <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="15">
+        <v>75</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="14">
         <v>10</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1835,17 +1809,17 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
       <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="15"/>
+        <v>86</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1856,23 +1830,23 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
       <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="15">
+        <v>76</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="14">
         <v>45</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="14"/>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1883,17 +1857,17 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1904,23 +1878,23 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="15">
+        <v>77</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="14">
         <v>52</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="14"/>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1931,17 +1905,17 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1952,26 +1926,26 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
-        <v>67</v>
+      <c r="A12" s="20"/>
+      <c r="B12" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3">
         <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="16"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1981,25 +1955,25 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3">
         <v>25</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>105</v>
+      <c r="F13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2010,21 +1984,21 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2035,23 +2009,23 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E15" s="3">
         <v>25</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>21</v>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2062,21 +2036,21 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="19"/>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2087,23 +2061,23 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2114,19 +2088,19 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="19"/>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2137,21 +2111,21 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2162,19 +2136,19 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2185,23 +2159,23 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2212,19 +2186,19 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="19"/>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+        <v>137</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2235,792 +2209,817 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="19"/>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="14">
+        <v>10</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="19"/>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="14">
+        <v>45</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="19"/>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="19"/>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="15">
-        <v>10</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" t="s">
+      <c r="E27" s="14">
+        <v>52</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="19"/>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" t="s">
         <v>88</v>
       </c>
-      <c r="D24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="15">
-        <v>45</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="15">
-        <v>52</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>75</v>
+      <c r="A29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
         <v>119</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" t="s">
-        <v>123</v>
       </c>
       <c r="E30" s="3">
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>170</v>
+        <v>122</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E31" s="3">
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="18"/>
+        <v>123</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="15"/>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E32" s="3">
         <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="18"/>
+        <v>124</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="19"/>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E33" s="3">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="15"/>
+        <v>127</v>
+      </c>
+      <c r="G33" s="14"/>
       <c r="H33" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="19"/>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E34" s="3">
         <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" s="15"/>
+        <v>131</v>
+      </c>
+      <c r="G34" s="14"/>
       <c r="H34" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="19"/>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E35" s="3">
         <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="15"/>
+        <v>132</v>
+      </c>
+      <c r="G35" s="14"/>
       <c r="H35" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17" t="s">
-        <v>118</v>
+      <c r="A36" s="20"/>
+      <c r="B36" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E36" s="3">
         <v>25</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="19"/>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E37" s="3">
         <v>25</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>105</v>
+      <c r="F37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="19"/>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E38" s="3">
         <v>10</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
       <c r="H38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="19"/>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="F39" s="14"/>
       <c r="G39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="19"/>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s">
         <v>117</v>
       </c>
-      <c r="H39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="E41" s="3">
         <v>10</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
       <c r="H41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="E42" s="3">
         <v>45</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
       <c r="H42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="E43" s="3">
         <v>52</v>
       </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17" t="s">
-        <v>117</v>
+      <c r="A44" s="20"/>
+      <c r="B44" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="15"/>
+        <v>175</v>
+      </c>
+      <c r="F44" s="14"/>
       <c r="G44" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E45" s="3">
         <v>25</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>75</v>
+      <c r="A46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
         <v>119</v>
-      </c>
-      <c r="D46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" t="s">
-        <v>123</v>
       </c>
       <c r="E47" s="3">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>129</v>
+        <v>150</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="15"/>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E48" s="3">
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
+        <v>151</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="15"/>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E49" s="3">
         <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
+        <v>152</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="19"/>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E50" s="3">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>157</v>
-      </c>
-      <c r="G50" s="15"/>
+        <v>153</v>
+      </c>
+      <c r="G50" s="14"/>
       <c r="H50" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="19"/>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E51" s="3">
         <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>158</v>
-      </c>
-      <c r="G51" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="G51" s="14"/>
       <c r="H51" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="19"/>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E52" s="3">
         <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>159</v>
-      </c>
-      <c r="G52" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="G52" s="14"/>
       <c r="H52" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17" t="s">
-        <v>118</v>
+      <c r="A53" s="20"/>
+      <c r="B53" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E53" s="3">
         <v>25</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H53" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="19"/>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>25</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>105</v>
+      <c r="F54" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="H54" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="19"/>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E55" s="3">
         <v>10</v>
       </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
       <c r="H55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+      <c r="B56" s="19"/>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17"/>
-      <c r="C56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" t="s">
-        <v>112</v>
       </c>
       <c r="E56" s="3">
         <v>201</v>
       </c>
-      <c r="F56" s="15"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+      <c r="B57" s="19"/>
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
         <v>117</v>
       </c>
-      <c r="H56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E58" s="3">
         <v>10</v>
       </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
       <c r="H58" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E59" s="3">
         <v>45</v>
       </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E60" s="3">
         <v>52</v>
       </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17" t="s">
-        <v>117</v>
+      <c r="A61" s="20"/>
+      <c r="B61" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F61" s="15"/>
+        <v>175</v>
+      </c>
+      <c r="F61" s="14"/>
       <c r="G61" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="17"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E62" s="3">
         <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>181</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H62" s="14"/>
+        <v>177</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G47:G52"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="A29:A45"/>
+    <mergeCell ref="A46:A61"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B12:B28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="D10:D11"/>
@@ -3037,39 +3036,14 @@
     <mergeCell ref="H30:H32"/>
     <mergeCell ref="F37:F44"/>
     <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B12:B28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F13:F28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="A29:A45"/>
-    <mergeCell ref="A46:A61"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3080,7 +3054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D67D52-A437-4699-A5AD-1622B96522DD}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
@@ -3095,24 +3069,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3120,62 +3094,62 @@
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="22">
+      <c r="A3" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="21">
         <v>4</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="22">
         <v>900</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="22">
         <f>(B3*C3)</f>
         <v>3600</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="22">
+      <c r="A5" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="22">
         <v>1725</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <f>(B5*C5)</f>
         <v>5175</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B7" s="25">
         <v>1</v>
@@ -3183,77 +3157,77 @@
       <c r="C7" s="26">
         <v>7900</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <f>(B7*C7)</f>
         <v>7900</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="21"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="A9" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="21">
         <v>13</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="22">
         <v>1500</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <f>(B9*C9)</f>
         <v>19500</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="A11" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="22">
         <v>5800</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3265,7 +3239,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3273,80 +3247,80 @@
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="22">
+      <c r="A15" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="21">
         <v>4</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="22">
         <v>3000</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="22">
         <f>(B15*C15)</f>
         <v>12000</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="22">
+      <c r="A17" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="21">
         <v>4</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="22">
         <v>840</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="22">
         <f t="shared" ref="D17" si="0">(B17*C17)</f>
         <v>3360</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D19" s="10">
         <v>1200</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3358,7 +3332,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3370,6 +3344,27 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -3378,27 +3373,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://it-planet.com/en/p/junipernetworks-srx300-sys-je-460164.html" xr:uid="{AAF755E3-E3EE-47F8-8275-9017201641AD}"/>

--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solett\Documents\monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F7466-D9B7-462C-B827-C7AE9A8A5080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43A6EBA-EE4D-4D87-85F5-E57017DC21CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="VLAN" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="227">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -638,9 +638,6 @@
     <t>server2u.com</t>
   </si>
   <si>
-    <t xml:space="preserve">, Senetic – </t>
-  </si>
-  <si>
     <t>IBM támogatás (azonnali cserével)</t>
   </si>
   <si>
@@ -675,6 +672,63 @@
   </si>
   <si>
     <t>zabbix</t>
+  </si>
+  <si>
+    <t>Kliens eszközök</t>
+  </si>
+  <si>
+    <t>technimax.hu</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 7090 micro számítógép</t>
+  </si>
+  <si>
+    <t>Senetic</t>
+  </si>
+  <si>
+    <t>Technimax</t>
+  </si>
+  <si>
+    <t>Dell Latitude 15 5540</t>
+  </si>
+  <si>
+    <t>europc</t>
+  </si>
+  <si>
+    <t>europc.com</t>
+  </si>
+  <si>
+    <t>Ricoh IMC2010 nyomtató</t>
+  </si>
+  <si>
+    <t>galaxus.de</t>
+  </si>
+  <si>
+    <t>Galaxus</t>
+  </si>
+  <si>
+    <t>YeaLink 1301110</t>
+  </si>
+  <si>
+    <t>distrelec.hu</t>
+  </si>
+  <si>
+    <t>Distrelec</t>
+  </si>
+  <si>
+    <t>Hikvision DS-2CD2187G3-LIS2UY kamera</t>
+  </si>
+  <si>
+    <t>megateh.eu</t>
+  </si>
+  <si>
+    <t>Megateh</t>
+  </si>
+  <si>
+    <t>Hikvision DS-2CD2647G3T-LIZSY kamera</t>
+  </si>
+  <si>
+    <t>Kliens eszközök összesen</t>
   </si>
 </sst>
 </file>
@@ -757,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -778,7 +832,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -792,14 +845,23 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -807,23 +869,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -831,6 +884,16 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1300,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6E3A52-EA1F-4DC3-A424-AC94E711F493}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1417,7 +1480,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -1680,28 +1743,28 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="1"/>
@@ -1713,16 +1776,16 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1732,21 +1795,21 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>66</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -1761,15 +1824,15 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="4" t="s">
         <v>83</v>
       </c>
@@ -1782,21 +1845,21 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="15">
         <v>10</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="15"/>
       <c r="H6" t="s">
         <v>68</v>
       </c>
@@ -1809,15 +1872,15 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="15"/>
       <c r="H7" t="s">
         <v>84</v>
       </c>
@@ -1830,21 +1893,21 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <v>45</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" t="s">
         <v>90</v>
       </c>
@@ -1857,15 +1920,15 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="15"/>
       <c r="H9" t="s">
         <v>91</v>
       </c>
@@ -1878,21 +1941,21 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <v>52</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="15"/>
       <c r="H10" t="s">
         <v>92</v>
       </c>
@@ -1905,15 +1968,15 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="15"/>
       <c r="H11" t="s">
         <v>93</v>
       </c>
@@ -1926,8 +1989,8 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
         <v>63</v>
       </c>
       <c r="C12" t="s">
@@ -1942,10 +2005,10 @@
       <c r="F12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="14"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1955,8 +2018,8 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" t="s">
         <v>98</v>
       </c>
@@ -1966,10 +2029,10 @@
       <c r="E13" s="3">
         <v>25</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="15" t="s">
         <v>101</v>
       </c>
       <c r="H13" t="s">
@@ -1984,8 +2047,8 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" t="s">
         <v>99</v>
       </c>
@@ -1995,8 +2058,8 @@
       <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" t="s">
         <v>104</v>
       </c>
@@ -2009,8 +2072,8 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" t="s">
         <v>105</v>
       </c>
@@ -2020,8 +2083,8 @@
       <c r="E15" s="3">
         <v>25</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H15" t="s">
@@ -2036,8 +2099,8 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" t="s">
         <v>106</v>
       </c>
@@ -2047,8 +2110,8 @@
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" t="s">
         <v>104</v>
       </c>
@@ -2061,19 +2124,19 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" t="s">
         <v>69</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
         <v>113</v>
       </c>
       <c r="H17" t="s">
@@ -2088,17 +2151,17 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" t="s">
         <v>70</v>
       </c>
       <c r="D18" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" t="s">
         <v>89</v>
       </c>
@@ -2111,17 +2174,17 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" t="s">
         <v>87</v>
       </c>
       <c r="D19" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
         <v>114</v>
       </c>
       <c r="H19" t="s">
@@ -2136,17 +2199,17 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" t="s">
         <v>89</v>
       </c>
       <c r="D20" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
       <c r="H20" t="s">
         <v>70</v>
       </c>
@@ -2159,19 +2222,19 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" t="s">
         <v>67</v>
       </c>
       <c r="D21" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
         <v>136</v>
       </c>
       <c r="H21" t="s">
@@ -2186,17 +2249,17 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
       <c r="C22" t="s">
         <v>83</v>
       </c>
       <c r="D22" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
       <c r="H22" t="s">
         <v>138</v>
       </c>
@@ -2209,112 +2272,112 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" t="s">
         <v>68</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="15">
         <v>10</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
       <c r="H23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" t="s">
         <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
       <c r="C25" t="s">
         <v>90</v>
       </c>
       <c r="D25" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="15">
         <v>45</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
       <c r="C26" t="s">
         <v>91</v>
       </c>
       <c r="D26" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
       <c r="H26" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" t="s">
         <v>92</v>
       </c>
       <c r="D27" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="15">
         <v>52</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
       <c r="C28" t="s">
         <v>93</v>
       </c>
       <c r="D28" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
       <c r="H28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C29" t="s">
@@ -2337,9 +2400,9 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="15" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18" t="s">
         <v>117</v>
       </c>
       <c r="D30" t="s">
@@ -2351,17 +2414,17 @@
       <c r="F30" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" t="s">
         <v>120</v>
       </c>
@@ -2371,13 +2434,13 @@
       <c r="F31" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
       <c r="D32" t="s">
         <v>121</v>
       </c>
@@ -2387,12 +2450,12 @@
       <c r="F32" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
       <c r="C33" t="s">
         <v>118</v>
       </c>
@@ -2405,14 +2468,14 @@
       <c r="F33" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="14"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
       <c r="C34" t="s">
         <v>73</v>
       </c>
@@ -2425,14 +2488,14 @@
       <c r="F34" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" t="s">
         <v>74</v>
       </c>
@@ -2445,14 +2508,14 @@
       <c r="F35" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="14"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
         <v>114</v>
       </c>
       <c r="C36" t="s">
@@ -2467,14 +2530,14 @@
       <c r="F36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" t="s">
         <v>98</v>
       </c>
@@ -2484,10 +2547,10 @@
       <c r="E37" s="3">
         <v>25</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="15" t="s">
         <v>101</v>
       </c>
       <c r="H37" t="s">
@@ -2495,8 +2558,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
       <c r="C38" t="s">
         <v>99</v>
       </c>
@@ -2506,15 +2569,15 @@
       <c r="E38" s="3">
         <v>10</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
       <c r="H38" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" t="s">
         <v>69</v>
       </c>
@@ -2524,7 +2587,7 @@
       <c r="E39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="2" t="s">
         <v>113</v>
       </c>
@@ -2533,8 +2596,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" t="s">
         <v>166</v>
       </c>
@@ -2544,8 +2607,8 @@
       <c r="E40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15" t="s">
         <v>71</v>
       </c>
       <c r="H40" t="s">
@@ -2553,8 +2616,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="4" t="s">
         <v>167</v>
       </c>
@@ -2564,15 +2627,15 @@
       <c r="E41" s="3">
         <v>10</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
       <c r="H41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="4" t="s">
         <v>168</v>
       </c>
@@ -2582,15 +2645,15 @@
       <c r="E42" s="3">
         <v>45</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
       <c r="H42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="19"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="4" t="s">
         <v>169</v>
       </c>
@@ -2600,15 +2663,15 @@
       <c r="E43" s="3">
         <v>52</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
       <c r="H43" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="19" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17" t="s">
         <v>113</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2620,7 +2683,7 @@
       <c r="E44" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="2" t="s">
         <v>114</v>
       </c>
@@ -2629,8 +2692,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="3" t="s">
         <v>49</v>
       </c>
@@ -2643,16 +2706,16 @@
       <c r="F45" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="16"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C46" t="s">
@@ -2675,9 +2738,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="15" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18" t="s">
         <v>117</v>
       </c>
       <c r="D47" t="s">
@@ -2689,17 +2752,17 @@
       <c r="F47" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="15"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" t="s">
         <v>120</v>
       </c>
@@ -2709,13 +2772,13 @@
       <c r="F48" t="s">
         <v>151</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="15"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
       <c r="D49" t="s">
         <v>121</v>
       </c>
@@ -2725,12 +2788,12 @@
       <c r="F49" t="s">
         <v>152</v>
       </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
       <c r="C50" t="s">
         <v>118</v>
       </c>
@@ -2743,14 +2806,14 @@
       <c r="F50" t="s">
         <v>153</v>
       </c>
-      <c r="G50" s="14"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
       <c r="C51" t="s">
         <v>73</v>
       </c>
@@ -2763,14 +2826,14 @@
       <c r="F51" t="s">
         <v>154</v>
       </c>
-      <c r="G51" s="14"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
       <c r="C52" t="s">
         <v>74</v>
       </c>
@@ -2783,14 +2846,14 @@
       <c r="F52" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="14"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="19" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17" t="s">
         <v>114</v>
       </c>
       <c r="C53" t="s">
@@ -2805,14 +2868,14 @@
       <c r="F53" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H53" s="16"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
       <c r="C54" t="s">
         <v>98</v>
       </c>
@@ -2822,10 +2885,10 @@
       <c r="E54" s="3">
         <v>25</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="15" t="s">
         <v>101</v>
       </c>
       <c r="H54" t="s">
@@ -2833,8 +2896,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
       <c r="C55" t="s">
         <v>99</v>
       </c>
@@ -2844,15 +2907,15 @@
       <c r="E55" s="3">
         <v>10</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
       <c r="H55" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="19"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
       <c r="C56" t="s">
         <v>69</v>
       </c>
@@ -2862,7 +2925,7 @@
       <c r="E56" s="3">
         <v>201</v>
       </c>
-      <c r="F56" s="14"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="2" t="s">
         <v>113</v>
       </c>
@@ -2871,8 +2934,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="19"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
       <c r="C57" t="s">
         <v>125</v>
       </c>
@@ -2882,8 +2945,8 @@
       <c r="E57" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14" t="s">
+      <c r="F57" s="15"/>
+      <c r="G57" s="15" t="s">
         <v>71</v>
       </c>
       <c r="H57" t="s">
@@ -2891,8 +2954,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="19"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="4" t="s">
         <v>128</v>
       </c>
@@ -2902,15 +2965,15 @@
       <c r="E58" s="3">
         <v>10</v>
       </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
       <c r="H58" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="19"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="4" t="s">
         <v>67</v>
       </c>
@@ -2920,15 +2983,15 @@
       <c r="E59" s="3">
         <v>45</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
       <c r="H59" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="19"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="4" t="s">
         <v>68</v>
       </c>
@@ -2938,15 +3001,15 @@
       <c r="E60" s="3">
         <v>52</v>
       </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
       <c r="H60" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="19" t="s">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17" t="s">
         <v>113</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -2958,7 +3021,7 @@
       <c r="E61" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F61" s="14"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="2" t="s">
         <v>114</v>
       </c>
@@ -2967,7 +3030,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="3" t="s">
         <v>49</v>
       </c>
@@ -2980,18 +3043,49 @@
       <c r="F62" t="s">
         <v>177</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H62" s="16"/>
+      <c r="H62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G4:G11"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="F37:F44"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B12:B28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="G40:G43"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G47:G52"/>
@@ -3008,42 +3102,11 @@
     <mergeCell ref="F54:F61"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B12:B28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F13:F28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G4:G11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="F37:F44"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="G54:G55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3052,15 +3115,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D67D52-A437-4699-A5AD-1622B96522DD}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
@@ -3088,130 +3151,130 @@
       <c r="A2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="22">
         <v>4</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>900</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <f>(B3*C3)</f>
         <v>3600</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>201</v>
+      <c r="E3" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="11" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="22">
         <v>3</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>1725</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <f>(B5*C5)</f>
         <v>5175</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>202</v>
+      <c r="E5" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="11" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>1</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>7900</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <f>(B7*C7)</f>
         <v>7900</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>203</v>
+      <c r="E7" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="12" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="21">
+      <c r="A9" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="22">
         <v>13</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>1500</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <f>(B9*C9)</f>
         <v>19500</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>204</v>
+      <c r="E9" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="11" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>5800</v>
       </c>
       <c r="E11" s="23" t="s">
@@ -3219,139 +3282,339 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="13">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="12">
         <f>SUM(D3:D12)</f>
         <v>41975</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>4</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>3000</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <f>(B15*C15)</f>
         <v>12000</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>198</v>
+      <c r="E15" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="11" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="21">
+      <c r="A17" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="22">
         <v>4</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>840</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <f t="shared" ref="D17" si="0">(B17*C17)</f>
         <v>3360</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1200</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="13">
+        <v>198</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="12">
         <f>SUM(D15:D19)</f>
         <v>16560</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="13">
-        <f>SUM(D13,D20)</f>
-        <v>58535</v>
+      <c r="A21" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="E21" s="8"/>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="15">
+        <v>50</v>
+      </c>
+      <c r="C22" s="26">
+        <v>350</v>
+      </c>
+      <c r="D22" s="26">
+        <f>(B22*C22)</f>
+        <v>17500</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="15">
+        <v>10</v>
+      </c>
+      <c r="C24" s="26">
+        <v>700</v>
+      </c>
+      <c r="D24" s="26">
+        <f>(B24*C24)</f>
+        <v>7000</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="26">
+        <v>2200</v>
+      </c>
+      <c r="D26" s="26">
+        <f>(B26*C26)</f>
+        <v>8800</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="15">
+        <v>50</v>
+      </c>
+      <c r="C28" s="26">
+        <v>100</v>
+      </c>
+      <c r="D28" s="26">
+        <f>(B28*C28)</f>
+        <v>5000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="15">
+        <v>10</v>
+      </c>
+      <c r="C30" s="26">
+        <v>300</v>
+      </c>
+      <c r="D30" s="26">
+        <f>(B30*C30)</f>
+        <v>3000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="15">
+        <v>10</v>
+      </c>
+      <c r="C32" s="26">
+        <v>400</v>
+      </c>
+      <c r="D32" s="26">
+        <f>(B32*C32)</f>
+        <v>4000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="29">
+        <f>SUM(D22:D33)</f>
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="12">
+        <f>SUM(D13,D20,D34)</f>
+        <v>103835</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
+  <mergeCells count="53">
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3365,14 +3628,14 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://it-planet.com/en/p/junipernetworks-srx300-sys-je-460164.html" xr:uid="{AAF755E3-E3EE-47F8-8275-9017201641AD}"/>
@@ -3381,6 +3644,12 @@
     <hyperlink ref="E10" r:id="rId4" display="https://www.getozark.com/juniper-ap47-wi-fi-7-indoor-wireless-bluetooth-access-point-with-internal-directional-external-antenna-white/" xr:uid="{F4043C6D-CFF7-4922-86FA-62962190DAF9}"/>
     <hyperlink ref="E16" r:id="rId5" display="https://www.server2u.com/shop/x3250m5-ibm-system-x3250-m5-1u-rack-server-e3-1220v3-8gb-2x480gb-56133?srsltid=AfmBOooPtGqEtOCQRqh1ri-9Gs7HCuxjGxXJLrUCz1w0MCgC7MkkNAsz" xr:uid="{BBC6524A-FB37-47FC-947A-4BCE7A900B75}"/>
     <hyperlink ref="E18" r:id="rId6" xr:uid="{7864CE6D-869B-4815-AB13-0F25049856BE}"/>
+    <hyperlink ref="E23" r:id="rId7" xr:uid="{87E2741D-BC50-457E-AD4B-50ADCEF24C14}"/>
+    <hyperlink ref="E25" r:id="rId8" xr:uid="{A917D74C-7A5D-4A88-A44D-46D53C0C085C}"/>
+    <hyperlink ref="E27" r:id="rId9" xr:uid="{E483022B-F02C-4467-B3C5-65849AC45339}"/>
+    <hyperlink ref="E29" r:id="rId10" xr:uid="{C5F9599E-A3A7-4385-8470-4AD7FDBD673D}"/>
+    <hyperlink ref="E31" r:id="rId11" xr:uid="{5BDE76B3-FC6B-45F8-9E7B-3DA1C7899B50}"/>
+    <hyperlink ref="E33" r:id="rId12" xr:uid="{69000247-09A9-4625-A5F4-07715EEAE985}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solett\Documents\monke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solet\Documents\Jedlik\MonkeBricks\monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43A6EBA-EE4D-4D87-85F5-E57017DC21CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89583621-FAB7-4A5C-A0A9-7DD9178D2D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="VLAN" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="235">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -729,6 +729,30 @@
   </si>
   <si>
     <t>Kliens eszközök összesen</t>
+  </si>
+  <si>
+    <t>chimp1-5</t>
+  </si>
+  <si>
+    <t>eth0</t>
+  </si>
+  <si>
+    <t>chimp1-3</t>
+  </si>
+  <si>
+    <t>172.20.25.30-32</t>
+  </si>
+  <si>
+    <t>ge-0/0/4-6</t>
+  </si>
+  <si>
+    <t>172.24.25.30-34</t>
+  </si>
+  <si>
+    <t>ge-0/0/3-7</t>
+  </si>
+  <si>
+    <t>172.28.25.30-34</t>
   </si>
 </sst>
 </file>
@@ -811,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -845,23 +869,18 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -869,10 +888,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -884,16 +915,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1215,14 +1236,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1244,7 +1265,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
@@ -1255,7 +1276,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>45</v>
       </c>
@@ -1266,7 +1287,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>52</v>
       </c>
@@ -1277,7 +1298,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>84</v>
       </c>
@@ -1288,7 +1309,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18</v>
       </c>
@@ -1299,7 +1320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>201</v>
       </c>
@@ -1324,13 +1345,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1338,7 +1359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1346,7 +1367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1367,16 +1388,16 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1393,7 +1414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1407,7 +1428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1472,7 +1493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +1510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1520,14 +1541,14 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +1565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1558,7 +1579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1575,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1605,15 +1626,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1630,7 +1651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1644,7 +1665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1661,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1685,31 +1706,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C47942-4AB3-49AD-9117-C136C35EE9A3}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1742,23 +1763,23 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -1775,15 +1796,15 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="20"/>
       <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="18"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="J3" s="1"/>
@@ -1794,19 +1815,19 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>81</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -1823,15 +1844,15 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="15"/>
       <c r="H5" s="4" t="s">
         <v>83</v>
@@ -1844,19 +1865,19 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>95</v>
       </c>
       <c r="E6" s="15">
         <v>10</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="15"/>
@@ -1871,15 +1892,15 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="18"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="15"/>
       <c r="H7" t="s">
         <v>84</v>
@@ -1892,19 +1913,19 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="15">
         <v>45</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="15"/>
@@ -1919,15 +1940,15 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="20"/>
       <c r="C9" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="18"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="15"/>
       <c r="H9" t="s">
         <v>91</v>
@@ -1940,19 +1961,19 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E10" s="15">
         <v>52</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="15"/>
@@ -1967,15 +1988,15 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="15"/>
       <c r="H11" t="s">
         <v>93</v>
@@ -1988,9 +2009,9 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C12" t="s">
@@ -2005,10 +2026,10 @@
       <c r="F12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="17"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2017,9 +2038,9 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="20"/>
       <c r="C13" t="s">
         <v>98</v>
       </c>
@@ -2046,9 +2067,9 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="C14" t="s">
         <v>99</v>
       </c>
@@ -2071,9 +2092,9 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" t="s">
         <v>105</v>
       </c>
@@ -2098,9 +2119,9 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="20"/>
       <c r="C16" t="s">
         <v>106</v>
       </c>
@@ -2123,9 +2144,9 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="20"/>
       <c r="C17" t="s">
         <v>69</v>
       </c>
@@ -2150,9 +2171,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>70</v>
       </c>
@@ -2173,9 +2194,9 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="20"/>
       <c r="C19" t="s">
         <v>87</v>
       </c>
@@ -2198,9 +2219,9 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>89</v>
       </c>
@@ -2221,9 +2242,9 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>67</v>
       </c>
@@ -2248,9 +2269,9 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>83</v>
       </c>
@@ -2271,9 +2292,9 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="20"/>
       <c r="C23" t="s">
         <v>68</v>
       </c>
@@ -2289,9 +2310,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>84</v>
       </c>
@@ -2305,9 +2326,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="20"/>
       <c r="C25" t="s">
         <v>90</v>
       </c>
@@ -2323,9 +2344,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="20"/>
       <c r="C26" t="s">
         <v>91</v>
       </c>
@@ -2339,9 +2360,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="20"/>
       <c r="C27" t="s">
         <v>92</v>
       </c>
@@ -2357,9 +2378,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="20"/>
       <c r="C28" t="s">
         <v>93</v>
       </c>
@@ -2373,692 +2394,790 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="3">
+        <v>25</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B30" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>115</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>116</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>49</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G31" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H31" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="16"/>
+      <c r="D32" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="3">
         <v>25</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" t="s">
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="16"/>
+      <c r="D33" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="3">
         <v>84</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" t="s">
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="20"/>
+      <c r="C34" t="s">
         <v>118</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="3">
         <v>10</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>127</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="3">
-        <v>45</v>
-      </c>
-      <c r="F34" t="s">
-        <v>131</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" s="3">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="20"/>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="3">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>64</v>
-      </c>
-      <c r="E36" s="3">
-        <v>25</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" t="s">
-        <v>100</v>
       </c>
       <c r="E37" s="3">
         <v>25</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="20"/>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3">
+        <v>25</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="20"/>
+      <c r="C39" t="s">
         <v>99</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E39" s="3">
         <v>10</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="20"/>
+      <c r="C40" t="s">
         <v>69</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="2" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="20"/>
+      <c r="C41" t="s">
         <v>166</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15" t="s">
+      <c r="F41" s="15"/>
+      <c r="G41" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="4" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="3">
         <v>10</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" s="3">
-        <v>45</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E43" s="3">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="3">
+        <v>52</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="2" t="s">
+      <c r="F45" s="15"/>
+      <c r="G45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="3" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E46" s="3">
         <v>25</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G46" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="3">
+        <v>25</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B48" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>115</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F48" t="s">
         <v>149</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E49" s="3">
         <v>18</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F49" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G49" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H49" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="16"/>
+      <c r="D50" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E50" s="3">
         <v>25</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F50" t="s">
         <v>151</v>
       </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" t="s">
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="16"/>
+      <c r="D51" t="s">
         <v>121</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E51" s="3">
         <v>84</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F51" t="s">
         <v>152</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" t="s">
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="20"/>
+      <c r="C52" t="s">
         <v>118</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E52" s="3">
         <v>10</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F52" t="s">
         <v>153</v>
-      </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="3">
-        <v>45</v>
-      </c>
-      <c r="F51" t="s">
-        <v>154</v>
-      </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="3">
-        <v>52</v>
-      </c>
-      <c r="F52" t="s">
-        <v>155</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="20"/>
+      <c r="C53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="20"/>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="3">
+        <v>52</v>
+      </c>
+      <c r="F54" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>49</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E55" s="3">
         <v>25</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G55" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" t="s">
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="20"/>
+      <c r="C56" t="s">
         <v>98</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E56" s="3">
         <v>25</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F56" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G56" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17"/>
-      <c r="C55" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="20"/>
+      <c r="C57" t="s">
         <v>99</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D57" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E57" s="3">
         <v>10</v>
       </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" t="s">
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17"/>
-      <c r="C56" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="20"/>
+      <c r="C58" t="s">
         <v>69</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>108</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E58" s="3">
         <v>201</v>
       </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="2" t="s">
+      <c r="F58" s="15"/>
+      <c r="G58" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H58" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="B59" s="20"/>
+      <c r="C59" t="s">
         <v>125</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D59" t="s">
         <v>147</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15" t="s">
+      <c r="F59" s="15"/>
+      <c r="G59" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H59" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="4" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E60" s="3">
         <v>10</v>
-      </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" s="3">
-        <v>45</v>
-      </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" s="3">
-        <v>52</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="3">
+        <v>52</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="2" t="s">
+      <c r="F63" s="15"/>
+      <c r="G63" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H63" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="17"/>
-      <c r="C62" s="3" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E64" s="3">
         <v>25</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F64" t="s">
         <v>177</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G64" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H62" s="14"/>
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="3">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>234</v>
+      </c>
+      <c r="G65" t="s">
+        <v>114</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="A30:A47"/>
+    <mergeCell ref="A48:A65"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G49:G54"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="F56:F63"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B12:B28"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
@@ -3071,42 +3190,17 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="F37:F44"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="B12:B28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F13:F28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="A29:A45"/>
-    <mergeCell ref="A46:A61"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3117,20 +3211,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D67D52-A437-4699-A5AD-1622B96522DD}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>178</v>
       </c>
@@ -3147,7 +3241,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>183</v>
       </c>
@@ -3156,17 +3250,17 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="24">
         <v>4</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="25">
         <v>900</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="25">
         <f>(B3*C3)</f>
         <v>3600</v>
       </c>
@@ -3174,26 +3268,26 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="24">
         <v>3</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="25">
         <v>1725</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="25">
         <f>(B5*C5)</f>
         <v>5175</v>
       </c>
@@ -3201,26 +3295,26 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="27">
         <v>1</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="28">
         <v>7900</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="25">
         <f>(B7*C7)</f>
         <v>7900</v>
       </c>
@@ -3228,26 +3322,26 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="21"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="24">
         <v>13</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="25">
         <v>1500</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="25">
         <f>(B9*C9)</f>
         <v>19500</v>
       </c>
@@ -3255,40 +3349,40 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="25">
         <v>5800</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="26" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>192</v>
       </c>
@@ -3300,7 +3394,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>193</v>
       </c>
@@ -3309,17 +3403,17 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="24">
         <v>4</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="25">
         <v>3000</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="25">
         <f>(B15*C15)</f>
         <v>12000</v>
       </c>
@@ -3327,26 +3421,26 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="24">
         <v>4</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="25">
         <v>840</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="25">
         <f t="shared" ref="D17" si="0">(B17*C17)</f>
         <v>3360</v>
       </c>
@@ -3354,17 +3448,17 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="10" t="s">
         <v>204</v>
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>196</v>
       </c>
@@ -3381,7 +3475,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>198</v>
       </c>
@@ -3391,106 +3485,106 @@
         <f>SUM(D15:D19)</f>
         <v>16560</v>
       </c>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>210</v>
       </c>
       <c r="B22" s="15">
         <v>50</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="22">
         <v>350</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="22">
         <f>(B22*C22)</f>
         <v>17500</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>213</v>
       </c>
       <c r="B24" s="15">
         <v>10</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="22">
         <v>700</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="22">
         <f>(B24*C24)</f>
         <v>7000</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
         <v>216</v>
       </c>
       <c r="B26" s="15">
         <v>4</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="22">
         <v>2200</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="22">
         <f>(B26*C26)</f>
         <v>8800</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
         <v>219</v>
       </c>
       <c r="B28" s="15">
         <v>50</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="22">
         <v>100</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="22">
         <f>(B28*C28)</f>
         <v>5000</v>
       </c>
@@ -3498,26 +3592,26 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
         <v>222</v>
       </c>
       <c r="B30" s="15">
         <v>10</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="22">
         <v>300</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="22">
         <f>(B30*C30)</f>
         <v>3000</v>
       </c>
@@ -3525,26 +3619,26 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
         <v>225</v>
       </c>
       <c r="B32" s="15">
         <v>10</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="22">
         <v>400</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="22">
         <f>(B32*C32)</f>
         <v>4000</v>
       </c>
@@ -3552,25 +3646,25 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="14">
         <f>SUM(D22:D33)</f>
         <v>45300</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>199</v>
       </c>
@@ -3583,38 +3677,10 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -3628,14 +3694,42 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://it-planet.com/en/p/junipernetworks-srx300-sys-je-460164.html" xr:uid="{AAF755E3-E3EE-47F8-8275-9017201641AD}"/>

--- a/monke_table.xlsx
+++ b/monke_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solet\Documents\Jedlik\MonkeBricks\monke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cuccok\Monke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89583621-FAB7-4A5C-A0A9-7DD9178D2D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F66E4-1A4E-49F0-AD6A-D6DC7E3F7A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{8A3F43E3-CAFE-4BB7-B7BA-F11B6EA6BDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="VLAN" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="239">
   <si>
     <t>VLAN szám</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>lemur</t>
-  </si>
-  <si>
-    <t>File/VSS</t>
   </si>
   <si>
     <t>mgmt</t>
@@ -753,6 +750,21 @@
   </si>
   <si>
     <t>172.28.25.30-34</t>
+  </si>
+  <si>
+    <t>File/VSS, printer</t>
+  </si>
+  <si>
+    <t>ge-1/0/30</t>
+  </si>
+  <si>
+    <t>ge-1/0/30.0</t>
+  </si>
+  <si>
+    <t>172.20.45.200</t>
+  </si>
+  <si>
+    <t>KP_Ricoh01</t>
   </si>
 </sst>
 </file>
@@ -873,14 +885,20 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -888,22 +906,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -914,6 +920,12 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1236,14 +1248,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1254,81 +1266,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1345,34 +1357,34 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1385,19 +1397,19 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1408,13 +1420,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1425,103 +1437,103 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -1538,17 +1550,18 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1559,55 +1572,55 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1623,18 +1636,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1645,55 +1659,55 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1706,54 +1720,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C47942-4AB3-49AD-9117-C136C35EE9A3}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1763,30 +1777,30 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>78</v>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>49</v>
+      <c r="G2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1796,17 +1810,17 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="20"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="18"/>
       <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1815,26 +1829,26 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="20"/>
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1844,18 +1858,18 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="20"/>
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="15"/>
+        <v>137</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1865,24 +1879,24 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="20"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18"/>
       <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="15">
+        <v>74</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="17">
         <v>10</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="15"/>
+      <c r="F6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="17"/>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1892,18 +1906,18 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="20"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
       <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="17"/>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1913,24 +1927,24 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="20"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="15">
+        <v>75</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="17">
         <v>45</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="15"/>
+      <c r="F8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="17"/>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1940,18 +1954,18 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="20"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
       <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17"/>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1961,24 +1975,24 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="20"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="15">
+        <v>76</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="17">
         <v>52</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="15"/>
+      <c r="F10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1988,18 +2002,18 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="20"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
       <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
+        <v>87</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2009,27 +2023,27 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
       </c>
       <c r="E12" s="3">
         <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="16"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2038,26 +2052,26 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="20"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="18"/>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3">
         <v>25</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>101</v>
+      <c r="F13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2067,22 +2081,22 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="20"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2092,24 +2106,24 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="20"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="3">
         <v>25</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>20</v>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2119,22 +2133,22 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="20"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2144,24 +2158,24 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="20"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
-        <v>113</v>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2171,20 +2185,20 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+        <v>109</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2194,22 +2208,22 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="18"/>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2219,20 +2233,20 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="20"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2242,24 +2256,24 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="20"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2269,20 +2283,20 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="20"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" t="s">
         <v>137</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" t="s">
-        <v>138</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2292,892 +2306,890 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="20"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18"/>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="17">
+        <v>10</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="18"/>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="17">
+        <v>45</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="18"/>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="18"/>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="17">
+        <v>52</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="18"/>
+      <c r="C29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="3">
+        <v>25</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="3">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="3">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="3">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18"/>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="3">
         <v>10</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="20"/>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="20"/>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="3">
         <v>45</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="20"/>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="20"/>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="18"/>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="3">
         <v>52</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="20"/>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E29" s="3">
-        <v>25</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="3">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="16"/>
-      <c r="D32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="3">
-        <v>25</v>
-      </c>
-      <c r="F32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="16"/>
-      <c r="D33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="3">
-        <v>84</v>
-      </c>
-      <c r="F33" t="s">
-        <v>124</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20"/>
-      <c r="C34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="3">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="20"/>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="3">
-        <v>45</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="F37" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="4" t="s">
+      <c r="G37" s="17"/>
+      <c r="H37" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="20"/>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="3">
-        <v>52</v>
-      </c>
-      <c r="F36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="3">
-        <v>25</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="20"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E38" s="3">
         <v>25</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="15" t="s">
+      <c r="F38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="18"/>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="3">
+        <v>25</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="18"/>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
         <v>101</v>
       </c>
-      <c r="H38" t="s">
+      <c r="E40" s="3">
+        <v>10</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="20"/>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="18"/>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="18"/>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="3">
         <v>10</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="20"/>
-      <c r="C40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="3">
+        <v>52</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="2" t="s">
+      <c r="D46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="20"/>
-      <c r="C41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" s="3">
-        <v>10</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="3">
-        <v>45</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="H46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E44" s="3">
-        <v>52</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="3">
-        <v>25</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="17"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="E47" s="3">
         <v>25</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="3">
+        <v>25</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G47" s="2" t="s">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
         <v>114</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D49" t="s">
         <v>115</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="3">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
         <v>149</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="16" t="s">
+      <c r="G50" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="3">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="3">
+        <v>84</v>
+      </c>
+      <c r="F52" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="18"/>
+      <c r="C53" t="s">
         <v>117</v>
       </c>
-      <c r="D49" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="3">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H49" s="15" t="s">
+      <c r="D53" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="16"/>
-      <c r="D50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="3">
-        <v>25</v>
-      </c>
-      <c r="F50" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="16"/>
-      <c r="D51" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="3">
-        <v>84</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E53" s="3">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
         <v>152</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="20"/>
-      <c r="C52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="3">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G53" s="17"/>
+      <c r="H53" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="18"/>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
         <v>153</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="20"/>
-      <c r="C53" t="s">
+      <c r="G54" s="17"/>
+      <c r="H54" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="18"/>
+      <c r="C55" t="s">
         <v>73</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>129</v>
       </c>
-      <c r="E53" s="3">
-        <v>45</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E55" s="3">
+        <v>52</v>
+      </c>
+      <c r="F55" t="s">
         <v>154</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="4" t="s">
+      <c r="G55" s="17"/>
+      <c r="H55" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="20"/>
-      <c r="C54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" t="s">
-        <v>130</v>
-      </c>
-      <c r="E54" s="3">
-        <v>52</v>
-      </c>
-      <c r="F54" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="3">
-        <v>25</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H55" s="17"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="20"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E56" s="3">
         <v>25</v>
       </c>
-      <c r="F56" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" s="15" t="s">
+      <c r="F56" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="18"/>
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="3">
+        <v>25</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="18"/>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" t="s">
         <v>101</v>
       </c>
-      <c r="H56" t="s">
+      <c r="E58" s="3">
+        <v>10</v>
+      </c>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="20"/>
-      <c r="C57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="18"/>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="3">
+        <v>201</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="18"/>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="3">
         <v>10</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="20"/>
-      <c r="C58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="3">
-        <v>201</v>
-      </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="2" t="s">
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="3">
+        <v>52</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="20"/>
-      <c r="C59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="3">
-        <v>10</v>
-      </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="3">
-        <v>45</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="4" t="s">
+      <c r="H64" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="3">
-        <v>52</v>
-      </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E64" s="3">
-        <v>25</v>
-      </c>
-      <c r="F64" t="s">
-        <v>177</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H64" s="17"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
-      <c r="B65" t="s">
-        <v>227</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>228</v>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="E65" s="3">
         <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>234</v>
-      </c>
-      <c r="G65" t="s">
-        <v>114</v>
-      </c>
-      <c r="H65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
         <v>233</v>
+      </c>
+      <c r="G66" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="A30:A47"/>
-    <mergeCell ref="A48:A65"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G49:G54"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="F56:F63"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B12:B28"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F13:F28"/>
-    <mergeCell ref="G21:G28"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="B12:B29"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G47:H47"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
@@ -3190,17 +3202,41 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="F38:F45"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="F39:F46"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F13:F28"/>
+    <mergeCell ref="G21:G28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="F57:F64"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="A31:A48"/>
+    <mergeCell ref="A49:A66"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="B56:B63"/>
+    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3215,176 +3251,176 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="24">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="23">
         <v>4</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <v>900</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <f>(B3*C3)</f>
         <v>3600</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>1725</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="22">
         <f>(B5*C5)</f>
         <v>5175</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="27">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="25">
         <v>1</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>7900</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <f>(B7*C7)</f>
         <v>7900</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="25"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="24">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="23">
         <v>13</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>1500</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <f>(B9*C9)</f>
         <v>19500</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="C11" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="22">
+        <v>5800</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="25">
-        <v>5800</v>
-      </c>
-      <c r="E11" s="26" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -3394,90 +3430,90 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="24">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="23">
         <v>4</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="22">
         <v>3000</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <f>(B15*C15)</f>
         <v>12000</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" s="24">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="23">
         <v>4</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="22">
         <v>840</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="22">
         <f t="shared" ref="D17" si="0">(B17*C17)</f>
         <v>3360</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" s="9">
         <v>1200</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3487,186 +3523,186 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="17">
         <v>50</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="28">
         <v>350</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="28">
         <f>(B22*C22)</f>
         <v>17500</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="15">
+      <c r="B24" s="17">
         <v>10</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="28">
         <v>700</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="28">
         <f>(B24*C24)</f>
         <v>7000</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="11" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" s="15">
+      <c r="B26" s="17">
         <v>4</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="28">
         <v>2200</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="28">
         <f>(B26*C26)</f>
         <v>8800</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B28" s="15">
+      <c r="B28" s="17">
         <v>50</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="28">
         <v>100</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="28">
         <f>(B28*C28)</f>
         <v>5000</v>
       </c>
       <c r="E28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="B30" s="15">
+      <c r="B30" s="17">
         <v>10</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="28">
         <v>300</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="28">
         <f>(B30*C30)</f>
         <v>3000</v>
       </c>
       <c r="E30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B32" s="15">
+      <c r="B32" s="17">
         <v>10</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="28">
         <v>400</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="28">
         <f>(B32*C32)</f>
         <v>4000</v>
       </c>
       <c r="E32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34" s="14">
         <f>SUM(D22:D33)</f>
         <v>45300</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3677,23 +3713,26 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -3710,26 +3749,23 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://it-planet.com/en/p/junipernetworks-srx300-sys-je-460164.html" xr:uid="{AAF755E3-E3EE-47F8-8275-9017201641AD}"/>
